--- a/Data/place_with_facts_tam.xlsx
+++ b/Data/place_with_facts_tam.xlsx
@@ -19,44 +19,1068 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Place</t>
-  </si>
-  <si>
-    <t>Murdeshwar</t>
-  </si>
-  <si>
-    <t>Facts</t>
-  </si>
-  <si>
-    <t>This is a great place</t>
-  </si>
-  <si>
-    <t>Shri Janardhana Swamy Temple</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
+  <si>
+    <t>Place Name</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Meenakshi Amman Temple</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+தமிழ்நாடு மாநிலத்தின், மதுரை நகரில் அமைந்துள்ள மீனாட்சி அம்மன் கோவிலில் 🎶 985 நுணுக்கமாக செதுக்கப்பட்ட இசைத் தூண்கள் கொண்ட ஒரு மண்டபம் உள்ளது, இது மீனாட்சி கோவிலின் இசைத் தூண்கள் என்று அழைக்கப்படுகிறது. 🏛️ தட்டும்போது, ஒவ்வொரு தூணும் வெவ்வேறு இசைக் குறிப்பை 🎵 உருவாக்குகிறது, மேலும் சில தூண்கள் வெவ்வேறு இசைக் கருவிகளின் ஒலிகளை 🎻🥁🎺 பிரதிபலிக்கின்றன. 
+இந்த கட்டிடக்கலை அதிசயம் பண்டைய இந்திய கோயில் கட்டுபவர்களின் மேம்பட்ட கைவினைத்திறன் ✨ மற்றும் ஒலியியல் அறிவைக் 🎼 காட்டுகிறது. 🙌 
+📞 பயண ஏற்பாடுகளுக்கு DM செய்யுங்கள் அல்லது எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️ 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>Brihadeeshwarar Temple</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+தமிழ்நாடு மாநிலத்தின், தஞ்சாவூர் நகரில் அமைந்துள்ள பிரகதீஸ்வரர் கோயில் சிமெண்ட் அல்லது மோட்டார் போன்ற எந்த பிணைப்புப் பொருட்களும் இல்லாமல் 🔗 இன்டர்லாக்கிங் கற்களைப் பயன்படுத்தி கட்டப்பட்டது. 
+இது 1,000 ஆண்டுகளுக்கும் மேலாக தனது ஸ்திரத்தன்மையை(stability) உறுதி செய்து வருகிறது, இது சோழ வம்சத்தின் மேம்பட்ட பொறியியல் நுட்பங்களுக்கு 🎯 சான்றாகும். 
+🌍 பிரகதீஸ்வரர் கோயில் உலகின் முதல் மற்றும் ஒரே முழு கிரானைட் கோயிலாகும் 🪨, இது 130,000 டன்களுக்கும் அதிகமான கிரானைட்டைப் பயன்படுத்தி கட்டப்பட்டது. கிரானைட் செதுக்குவதும் 🛠️ அதை கொண்டு செல்வதும் 🚚 மிகவும் கடினமான காரியமாக இருந்தபோதிலும், சோழ வம்சத்தின் அசாதாரண பொறியியல் மற்றும் கைவினைத்திறனைக் ✨ வெளிப்படுத்துகிறது. 🙌 
+📞 பயண ஏற்பாடுகளுக்கு DM செய்யுங்கள் அல்லது எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️ 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>Mahabalipuram Shore Temple</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+தமிழ்நாடு மாநிலத்தில், காஞ்சிபுரம் மாவட்டத்தின் மகாபலிபுரத்தில் அமைந்துள்ள கடற்கரைக் கோயில் வலுவான கடல் காற்று 🌊, உப்பு அரிப்பு ⚓ மற்றும் சுனாமிகள் 🌪️ உட்பட கடுமையான கடலோர சூழலைத் தாங்கும் வகையில் தனித்துவமாக வடிவமைக்கப்பட்டுள்ளது. அதன் இடம் மற்றும் கட்டுமான நுட்பங்கள், பெரிய கிரானைட் தொகுதிகளை 🪨 பயன்படுத்தி வடிவமைக்கப்பட்டதால், கூறுகளுக்கு தொடர்ச்சியான வெளிப்பாடு இருந்தபோதிலும், இது 1,300 ஆண்டுகளுக்கும் மேலாக உயிர்வாழ உதவியது. 
+🔹 நவீன வரலாற்றில் மிகவும் ஆச்சரியமான தருணங்களில் ஒன்று 2004 இந்தியப் பெருங்கடல் சுனாமியின் 🌊 போது நிகழ்ந்தது. பிரம்மாண்டமான அலைகள் குறைந்தபோது, அவை கடற்கரைக் கோயிலுக்கு அருகே நீண்ட காலமாக புதைக்கப்பட்ட பாறை கட்டமைப்புகள் 🏗️ மற்றும் நீரில் மூழ்கிய இடிபாடுகளை ⛏️ தற்காலிகமாக அம்பலப்படுத்தின. 
+📞 பயண ஏற்பாடுகளுக்கு DM செய்யுங்கள் அல்லது எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️ 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>Kanyakumari</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+📍 தமிழ்நாடு மாநிலத்தின், கன்னியாகுமரி மாவட்டத்தின் கடற்கரை, இந்தியாவில் ஒரே இடத்தில் இருந்து 🌅 கடலின் மீது சூரிய உதயத்தையும் 🌇 சூரிய அஸ்தமனத்தையும் காணக்கூடிய அரிய இடம் ஆகும். 
+🌊 வங்காள விரிகுடா, அரபிக் கடல் மற்றும் இந்தியப் பெருங்கடல் சந்திக்கும் இந்திய துணைக் கண்டத்தின் தெற்கு முனையில் இது அமைந்திருப்பதால், இந்த அற்புதமான நிகழ்வு ஏற்படுகிறது. 
+🏝️ இருப்பினும், டையூ மற்றும் அந்தமான் &amp; நிக்கோபார் தீவுகளின் சில பகுதிகள் போன்ற சில தீவுகளில், அவற்றின் புவியியல் நிலைப்பாட்டின் காரணமாக இதேபோன்ற நிகழ்வை காணலாம். 
+✅ ஆனால் பிரதான நிலப்பரப்பில், கன்னியாகுமரி தனிப்பட்ட அழகும், மனதை கொள்ளை கொள்ளும் இயற்கை அதிசயத்தையும் வழங்கும் இடமாக திகழ்கிறது. ✨ 
+📞 பயண ஏற்பாடுகளுக்கு DM செய்யுங்கள் அல்லது எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️ 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>Ramanathaswamy Temple Rameswaram</t>
+  </si>
+  <si>
+    <t>Nilgri Mountain Railway</t>
+  </si>
+  <si>
+    <t>Courtallam falls</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🌊 குற்றாலம் நீர்வீழ்ச்சி தமிழ்நாடு மாநிலத்தின் தென்காசி மாவட்டத்தில் அமைந்துள்ளது, இது அதன் இயற்கையான அழகு மற்றும் மருத்துவ குணங்கள் கொண்ட நீருக்கு பிரபலமாகும். 
+🌿 அதன் நீரில் இயற்கையான மருத்துவ குணங்கள் இருப்பதாக நம்பப்படுகிறது, இதனால் இது இந்தியாவில் "இயற்கை ஸ்பா" 🏞️ என்று அழைக்கப்படும் ஒரே நீர்வீழ்ச்சி ஆகும். 
+🌄 இந்த நீர் மேற்குத் தொடர்ச்சி மலையிலிருந்து உருவாகி, மூலிகைத் தாவரங்கள் மற்றும் மருத்துவ மரங்கள் நிறைந்த காடுகள் வழியாக பாய்கிறது. 
+🪨 இது பாறைகளில் இறங்கும்போது, அரிய மூலிகைகளின் குணப்படுத்தும் சாரத்தை உறிஞ்சும் என்று நம்பப்படுகிறது, இது உடலுக்கு புத்துணர்ச்சி ✨ அளிக்கும், தோல் ஆரோக்கியத்தை மேம்படுத்தும் மற்றும் கீல்வாதம் மற்றும் ஒற்றைத் தலைவலி 🤕 போன்ற நோய்களிலிருந்து கூட நிவாரணம் அளிக்கும். 
+📞 பயண ஏற்பாடுகளுக்கு DM செய்யுங்கள் அல்லது எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️ 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>Manjolai</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🌿 மாஞ்சோலை மலைகள் தமிழ்நாடு மாநிலத்தின் திருநெல்வேலி மாவட்டத்தில், களக்காடு முண்டந்துறை புலிகள் காப்பகத்திற்குள் (K.M.T.R) அமைந்துள்ளன. 
+🚫 இந்தியாவின் மிகக் குறைந்த ஆய்வு செய்யப்பட்ட மற்றும் மிகவும் கட்டுப்படுத்தப்பட்ட மலைவாசஸ்தலங்களில் ஒன்றாகும், இங்கு செல்ல சிறப்பு அனுமதி தேவைப்படுகிறது. 
+🏞️ பிரபலமான இடங்களைப் போலல்லாமல், வெகுஜன சுற்றுலாவால் இது பாதிக்கப்படாமல் உள்ளது, அதன் பழமையான காடுகள், பிரிட்டிஷ் கால தேயிலைத் தோட்டங்கள் 🍃 மற்றும் நாலுமுக்கு மற்றும் குட்ரேவட்டி நீர்வீழ்ச்சி போன்ற மறைக்கப்பட்ட நீர்வீழ்ச்சிகளைப் பாதுகாக்கிறது. 
+⛰️ 1,100-1,500 மீட்டர் உயரத்தில் அமைந்துள்ள இது, ஊட்டியை விட குளிரான ❄️ காலநிலையை அனுபவிக்கிறது மற்றும் தமிழ்நாட்டின் மிக அழகிய கட் சாலைகளில் ஒன்றை வழங்குகிறது, இதில் மூடுபனி மூடப்பட்ட பள்ளத்தாக்குகள் மற்றும் அடர்ந்த பசுமை உள்ளது. 
+📞 பயண ஏற்பாடுகளுக்கு DM செய்யுங்கள் அல்லது எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️ 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>Vattakanal</t>
+  </si>
+  <si>
+    <t>Pichavaram Mangrove Forest</t>
+  </si>
+  <si>
+    <t>Mukurthi National Park</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+📍 முகூர்த்தி தேசியப் பூங்கா, தமிழ்நாடு மாநிலத்தில், நீலகிரி மலைகளில் அமைந்துள்ளது, இது தமிழ்நாட்டின் மிகவும் குளிரான இடங்களில் ❄️ ஒன்றாகும். இங்கு உரைபனி, பூஜ்ஜியத்திற்கு குறைவான வெப்பநிலை 🌡️ மற்றும் அவ்வப்போது பனிப்பொழிவு ❄️ பதிவு செய்யப்பட்டுள்ளது—இது மாநிலத்தில் ஆர்க்டிக் நிலைமைகளைக் கொண்ட ஒரே இடமாகும். 
+🦌 முகூர்த்தியை தனித்துவமாக்குவது அதன் ஷோலா-புல்வெளி சுற்றுச்சூழல் அமைப்பாகும், இது மேற்குத் தொடர்ச்சி மலையில் மட்டுமே காணப்படும். அரிய மலை ஆடு, அழிந்து வரும் நீலகிரி தஹ்ரின் 🏔️ தாயகமாக உள்ளது. 
+🏕️ இந்தப் பூங்காவில் மறைக்கப்பட்ட பனிப்பாறை போன்ற ஏரிகள், ஆல்பைன் புல்வெளிகள் 🌿 மற்றும் மூடுபனி மூடிய பள்ளத்தாக்குகள் 🌫️ உள்ளன, இது தென்னிந்தியாவில் கிட்டத்தட்ட இமயமலை உணர்வைக் கொடுக்கிறது. 
+🚫 அதன் தீவிர தொலைதூரம் மற்றும் கடுமையான பாதுகாப்பு விதிகள் காரணமாக, முகூர்த்தி தமிழ்நாட்டில் மிகக் குறைவாக ஆராயப்பட்ட வனவிலங்கு இருப்புக்களில் ஒன்றாக உள்ளது. 
+📞 பயண ஏற்பாடுகளுக்கு DM செய்யுங்கள் அல்லது எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️ 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>Vainu Bappu Observatory</t>
+  </si>
+  <si>
+    <t>Amirthi Forest</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+📍 அமிர்தி காடு, தமிழ்நாடு மாநிலத்தில், வேலூர் மாவட்டத்தில் அமைந்துள்ளது. இது தமிழ்நாட்டின் மிகக் குறைந்த அளவில் ஆராயப்பட்ட வெப்பமண்டல காடுகளில் 🌿 ஒன்றாகும், இது மறைக்கப்பட்ட நீர்வீழ்ச்சிகள், இயற்கை பாறை அமைப்புகள் மற்றும் பண்டைய குகைகள் 🏞️ ஆகியவற்றுக்கு பெயர் பெற்றது. 
+💦 அமிர்தியை தனித்துவமாக்குவது என்னவென்றால், இது பருவகால நீர்வீழ்ச்சியின் தாயகமாகும், இது பருவமழையின் போது மட்டுமே தோன்றும், இது ஒரு அரிய காட்சியாக 🤩 அமைகிறது. 
+🦋 இயற்கை ஆர்வலர்களையும் ஆராய்ச்சியாளர்களையும் ஈர்க்கும் இந்த காட்டில் மருத்துவ தாவரங்கள் மற்றும் அரிய பட்டாம்பூச்சிகளும் காணப்படுகின்றன. 
+⛰️ காட்டின் உள்ளே ஆழமாக, பண்டைய குகைகள் மற்றும் பாறை தங்குமிடங்கள் உள்ளன, அவை துறவி புனிதர்கள் மற்றும் ஆரம்பகால குடியேறியவர்களால் பயன்படுத்தப்பட்டதாக நம்பப்படுகிறது. 
+🏕️ இந்த காடு தமிழ்நாட்டின் சிறந்த ரகசியங்களில் ஒன்றாக உள்ளது, இது ஒரே இடத்தில் சாகசங்கள், வரலாறு மற்றும் பல்லுயிர் கலவையை வழங்குகிறது. 
+📞 பயண ஏற்பாடுகளுக்கு DM செய்யுங்கள் அல்லது எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️ 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>Pulicat Lake</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+📍 புலிகாட் ஏரி, தமிழ்நாடு-ஆந்திரப் பிரதேச எல்லையில் அமைந்துள்ளது. இது இந்தியாவின் இரண்டாவது பெரிய உவர்நீர் ஏரி 🏞️ மற்றும் தென்னிந்தியாவின் மிக முக்கியமான பறவை சரணாலயங்களில் 🦩 ஒன்றாகும். 
+💖 புலிகாட்டை தனித்துவமாக்குவது என்னவென்றால், அதன் மிகப்பெரிய வருடாந்திர ஃபிளமிங்கோ இடம்பெயர்வு ஆகும், அங்கு டிசம்பர் மற்றும் மார்ச் மாதங்களுக்கு இடையில் ஆயிரக்கணக்கான இளஞ்சிவப்பு ஃபிளமிங்கோக்கள் வந்து ஏரியை இளஞ்சிவப்பு சொர்க்கமாக 💕 மாற்றுகின்றன. 
+🦢 இந்த ஏரியில் பெலிக்கன்கள், வர்ணம் பூசப்பட்ட நாரைகள் மற்றும் ஹெரான்கள் உள்ளிட்ட 100-க்கும் மேற்பட்ட பறவை இனங்கள் காணப்படுகின்றன, இது பறவைகள் பார்ப்பவர்களுக்கு ஒரு சொர்க்கமாக அமைகிறது. 
+🏰 புலிகாட் ஒரு வளமான வரலாற்றையும் கொண்டுள்ளது – இது ஒரு காலத்தில் வளர்ந்து வரும் டச்சு காலனியாக இருந்தது, மேலும் டச்சு கால கட்டிடங்கள் மற்றும் கல்லறைகளின் எச்சங்கள் இன்னும் அருகிலுள்ள கிராமத்தில் காணப்படுகின்றன. 
+📞 பயண ஏற்பாடுகளுக்கு DM செய்யுங்கள் அல்லது எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️ 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>Athirampakkam</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+📍 தமிழ்நாடு மாநிலத்தில், சென்னைக்கு அருகிலுள்ள ஒரு சிறிய கிராமமான அதிரம்பாக்கம், இந்தியாவின் மிகப் பழமையான கற்கால தளத்தின் ⏳ தாயகமாக உள்ளது, இது 385,000 ஆண்டுகளுக்கு முந்தையது – எகிப்திய பிரமிடுகள் மற்றும் ஆரம்பகால ஹோமோ சேபியன்ஸ் புதைபடிவங்களை விட பழமையானது 🏺. 
+🪨 தொல்பொருள் ஆராய்ச்சியாளர்கள் இங்கு கல் கருவிகள் மற்றும் கலைப்பொருட்களைக் கண்டுபிடித்தனர், இது ஆரம்பகால மனிதர்கள் தமிழ்நாட்டில் முன்பு நினைத்ததை விட மிக முன்னதாகவே வாழ்ந்தனர் என்பதை நிரூபிக்கிறது. 
+🌍 இந்த கண்டுபிடிப்பு மனித இடம்பெயர்வு குறித்த உலகளாவிய கோட்பாடுகளையும் சவால் செய்கிறது, இது ஐரோப்பா மற்றும் ஆப்பிரிக்காவுக்கு நீண்ட காலத்திற்கு முன்பே தெற்காசியாவில் மேம்படட கருவி உருவாக்கும் நட்பங்கள் இருந்ததாகக் கூறுகிறது. 
+🏛️ அதன் மகத்தான வரலாற்று முக்கியத்துவம் இருந்தபோதிலும், அதிரம்பாக்கம் பெரிய சுற்றுலா வசதிகள் இல்லாததால் பெரும்பாலும் அறியப்படாததாகவே உள்ளது. 
+📞 பயண ஏற்பாடுகளுக்கு DM செய்யுங்கள் அல்லது எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️ 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>Sangagiri Fort</t>
+  </si>
+  <si>
+    <t>Sathanur Dam</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+📍 தமிழ்நாடு மாநிலத்தின் திருவண்ணாமலை மாவட்டத்தில் அமைந்துள்ள சாத்தனூர் அணை, தமிழ்நாட்டின் மிக அழகிய அணைகளில் 🌊 ஒன்றாகும். 
+🐊 சாத்தனூரை தனித்துவமாக்குவது இதன் முதலை மறுவாழ்வு மையம், இது தமிழ்நாட்டில் உள்ள மிகச் சிலவற்றில் ஒன்றாகும். இங்கு பார்வையாளர்கள் முதலை பாதுகாப்பு முயற்சிகளை நேரடியாகக் காணவும், கற்றுக்கொள்ளவும் முடியும். 
+🌿 இந்த அணை கிழக்குத் தொடர்ச்சி மலையின் அடர்ந்த காடுகளால் சூழப்பட்டுள்ளது, இது மழைக்காலத்தில் அரிய பறவைகள், பட்டாம்பூச்சிகள் 🦋 மற்றும் அழகிய நீர்வீழ்ச்சிகளுக்கு 💦 ஒரு முக்கிய இடமாக அமைகிறது. 
+🏞️ வரலாற்று மற்றும் சுற்றுச்சூழல் முக்கியத்துவம் இருந்தபோதிலும, சாத்தனூர் மர்மம், வனவிலங்கு மற்றும் இயற்கை அழகு ஆகியவற்றின் கலவையை வழங்கும் ஒரு குறைவாக மதிப்பிடப்பட்ட பயணமாக உள்ளது. 
+📞 பயண ஏற்பாடுகளுக்கு DM செய்யுங்கள் அல்லது எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️ 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>Vattakottai Fort</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+📍 தமிழ்நாடு மாநிலத்தின் கன்னியாகுமரி மாவட்டத்தில் அமைந்துள்ள வட்டக்கோட்டை, தமிழ்நாட்டின் ஒரே வட்ட வடிவ கடலோரக் கோட்டை 🏰 ஆகும். 
+🌊 ஒருபுறம் வங்காள விரிகுடா, மறுபுறம் மேற்குத் தொடர்ச்சி மலைகள் ⛰️ என இரட்டைக் காட்சியை வழங்கும் இக்கோட்டை, அதன் அற்புதமான இடத்திற்காக பிரசித்தமானது. 
+🪨 வட்டக்கோட்டையை தனித்துவமாக்குவது இதன் கட்டிடக்கலை – இது சுண்ணாம்பு மற்றும் கடல் குண்டுகளுடன் கலந்த கிரானைட் தொகுதிகளைப் பயன்படுத்தி உருவாக்கப்பட்டதால், கடலோர வானிலைக்கு எதிராக அதற்கு விசித்திரமான ஆயுள் கிடைத்துள்ளது. 
+⚔️ திருவிதாங்கூர் இராஜ்ஜியத்தால் கட்டப்பட்ட இராணுவக் கோட்டையாக இருந்த இது, பத்மநாபபுரம் அரண்மனையுடன் இணைக்கும் என்று நம்பப்படும் மறைக்கப்பட்ட நிலத்தடி சுரங்கப்பாதையைக் கொண்டுள்ளது. 
+🎬 "மூக்குத்தி அம்மன்" உள்ளிட்ட பல தமிழ் திரைப்படங்கள் இங்கு படமாக்கப்பட்டுள்ளன, இதன் அழகிய கடலோர தோற்றத்திற்காக இது பிரபலமானது. 
+📞 பயண ஏற்பாடுகளுக்கு DM செய்யுங்கள் அல்லது எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️ 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>Sathuragiri Temple</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+📍 தமிழ்நாடு மாநிலத்தின் விருதுநகர் மாவட்டத்தில், சதுரகிரி கோயில் 🛕, அகத்தியர் உட்பட 18 சித்தர்கள் தியானம் செய்த ஒரு புனித சித்தர் வாசஸ்தலமாக உள்ளது. 
+🔱 சுந்தர மகாலிங்கம் மற்றும் சாந்தன மகாலிங்கம் ஆகிய இரண்டு லிங்கங்களைக் கொண்ட சில சிவன் கோயில்களில் இதுவும் ஒன்றாகும். 
+🌑 இந்த கோயில் அமாவாசை மற்றும் பௌர்ணமி நாட்களில் மட்டுமே திறந்திருக்கும், இதை அடைய அதிக அடர்ந்த காடுகளின் வழியாக 10 கி.மீ. மலையேற்றம் 🏞️ தேவைப்படுகிறது. 
+🌿 சதுரகிரி மலைகள் அரிய மருத்துவ மூலிகைகளுக்கு பெயர் பெற்றது, சித்தர்கள் சக்திவாய்ந்த அமுதங்களை உருவாக்க பயன்படுத்தியதாக நம்பப்படுகிறது. 
+🕉️ "பூமியில் உள்ள கைலாஷ்" என்று கருதப்படும் இந்த தலத்தில், சிவன் ஒரு மாய வடிவத்தில் வசிப்பதாக கூறப்படுகிறது, இது ஆன்மீக பயணிகளுக்கு ஒரு மறைக்கப்பட்ட தெய்வீக அனுபவமாக 💫 அமைகிறது. 
+📞 பயண ஏற்பாடுகளுக்கு DM செய்யுங்கள் அல்லது எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️ 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>Channapatna</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🧸 சன்னபட்டண – இந்தியாவின் பொம்மைகளின் நகரம்! 🎨 
+📍 கர்நாடகாவின் ராமநகரா மாவட்டத்தில் அமைந்துள்ள சன்னபட்டண, உலகப்புகழ் பெற்ற மரக்கச்சேரிகளின் இடமாக அறியப்படுகிறது. 
+🌳 இந்த இடம், திடமான எய்வரி மரம் (Ivory Woods) கொண்டு தயாரிக்கப்பட்ட, 100% குழந்தைகளுக்குத் பாதுகாப்பான பொம்மைகளுக்கு புகழ்பெற்றது. 
+👑 திபு சுல்தான் இந்த மரப் பொம்மைகளை அறிமுகப்படுத்தினார், அவர் பஷியாவிலிருந்து (Persia) ஓர் கலையின் பயிலர்களை அழைத்து வந்ததாக கூறப்படுகிறது. 
+🌏 இன்றைய காலத்திலும், இந்த மரப்பொருட்கள் உலக வர்த்தக அமைப்பின் (WTO) கீழ் புவியியல் அடையாளமாக (GI) பாதுகாப்பாக உள்ளன. 
+📍 இந்த உலகப் புகழ் பெற்ற இடத்திற்கு செல்ல விருப்பமா? பயண ஏற்பாடுகளுக்காக எங்களை தொடர்பு கொள்ளுங்கள்! 😊✨ 
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️ 
+#Zications</t>
+  </si>
+  <si>
+    <t>Kukke Subrahmanya</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+📍 குக்கே சுப்பிரமண்ய – நாகத் தோஷ நிவாரண தலம்! 🐍✨ 
+📍 கர்நாடகா மாநிலம், தெற்கு கன்னடா மாவட்டத்தில் உள்ள குக்கே சுப்பிரமண்ய கோவில் புகழ்பெற்ற ஆன்மிகத் தலமாகும். 
+🙏 நாகபூஜை - பாம்புகளால் ஏற்படும் குற்றச் சிந்தனைகள், பயம், தோஷங்கள் ஆகியவற்றிலிருந்து விடுபட பக்தர்கள் இங்கு நாகபூஜை செய்கிறார்கள். 
+🌊 குமாரதாரா நதி – கோவிலுக்கு அருகே ஓடும் இந்த புனித நதியில் நீராடி தரிசனத்திற்குச் செல்வதை பக்தர்கள் புனிதச் செயலாகக் கருதுகின்றனர். 
+⛰️ சேஷ பர்வதம் – ஆறு தலை கொண்ட நாகம் போல், கோவிலை சுற்றி பாதுகாக்கும் அமைப்பில் இருக்கும் மலை! 😲 
+🪶 மருந்து சக்தியுள்ள மிட்டிகா பிரசாதம் – புற்றில் இருந்து எடுக்கப்படும் மண் (Mrittika Prasad) பக்தர்களுக்கு வழங்கப்படுகிறது. கர்ப்பிணிப் பெண்கள் இதை வயிற்றில் தேய்த்து நல்ல மகப்பேறு பெற விரும்புகிறார்கள். 
+📍 இந்த தெய்வீக தலத்திற்குச் சென்று நேரில் தரிசிக்க விருப்பமா? பயண ஏற்பாடுகளுக்காக எங்களை தொடர்பு கொள்ளுங்கள்! 😊✨ 
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️ 
+#Zications</t>
+  </si>
+  <si>
+    <t>Kollur Mookambika</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+📍 கொல்லூர் மூகாம்பிகை – சக்தியின் தாயிடம் ஒரு புனித தரிசனம்! 🙏✨ 
+📍 கர்நாடக மாநிலம், உடுப்பி மாவட்டத்தில் அமைந்துள்ள கொல்லூர், புகழ்பெற்ற ஆன்மிகத் தலமாகும், குறிப்பாக தேவிக்கு அர்ப்பணிக்கப்பட்ட கொல்லூர் மூகாம்பிகை கோவிலால் பிரசத்திபெற்றது. 
+🎉 நவராத்திரி – இத்திருக்கோவிலில் சிறப்பாக கொண்டாடப்படும் முக்கிய திருவிழா. ஒன்பது நாட்கள் நடைபெறும் இந்தப் பண்டிகை பக்தர்களுக்கு புனித உணர்வை வழங்குகிறது. 
+⛰️ கொடச்சாத்ரி மலை – புராண காலத்தில் பல முனிவர்களின் தவஸ்தலமாக இருந்தது. மூன்காலத்தில் கோல மகரிஷி, காமஹசுரனின் கொடுமையிலிருந்து பாதுகாப்பு பெற தேவி பராசக்தியை வழிபட்டார். 
+⚡ மூக்கசுரன் கதையின்படி, பிரம்மனால் பெற்ற வரங்களால் ஆற்றல்மிக்க அசுரன், பெண்களை ஒரு ஆபத்தாக கருதவில்லை. இந்த தவறை திருத்த சிவனை வழிபட முயன்றபோது, தேவி சக்தி அவனுக்கு மௌனம் ஏற்படுத்தி (மூக்கசுரன்) மாற்றினார். பின்னர், கோபமுற்ற அவன் அழிவுகளை ஏற்படுத்த, தேவி அவனை வென்று அழித்தார். 
+📞 பயண ஏற்பாடுகளுக்க DM செய்யுங்கள் அல்லது 6380013636 எண்ணை தொடர்பு கொள்ளுங்கள்! 🚗🏕️ 
+#Zications</t>
+  </si>
+  <si>
+    <t>Horanadu</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+📍 ஹோரணாடு – அன்னபூர்ணேஸ்வரி தேவியின் அருள்பாலிக்கும் புனிதத் தலம்! 🙏✨ 
+📍 கர்நாடக மாநிலம், சிக்கமகளூரு மாவட்டத்தில் அமைந்துள்ள ஹோரணாடு, புனிதமான ஸ்ரீ அன்னபூர்ணேஸ்வரி அம்மன் கோவிலால் பிரசித்தி பெற்றது. 
+🍛 அன்னபூர்ணேஸ்வரி – உணவின் தேவியாக விளங்கும் அம்மனை வழிபட்டால், வாழ்வில் ஒருபோதும் உணவின்மையால் பாதிக்கப்படமாட்டோம் என பக்தர்கள் நம்புகின்றனர். 
+🌊 பத்ரா ஆற்றங்கரையில் எழுந்தருளியுள்ள இந்த கோவிலில், அன்னபூர்ணேஸ்வரி அம்மன் தங்க சிலையாக பிரதிஷ்டை செய்யப்பட்டுள்ளார். சிவபெருமான் ஒரு சமயம் ஒரு சாபத்தால் பாதிக்கப்பட்டபோது, அன்னபூர்ணா தேவியை தரிசித்து அதன் விளைவை நீக்கிக்கொண்டதாக நம்பப்படுகிறது. 
+⛰️ ஹோரணாடு, புகழ்பெற்ற குத்ரேமுக் தேசியப் பூங்காவுக்கு அருகில் அமைந்துள்ளது. இது மேற்கு தொடர்ச்சி மலைப்பகுதியில் உள்ள முக்கிய உயிரினப் பாதுகாப்பு மண்டலமாகும். 
+☕ காபி, தேநீர் மற்றும் மசாலா பொருட்களுக்கு ஹோரணாடு பெயர் பெற்ற இடமாகும். இங்கு பாதாம், முந்திரி, ஏலக்காய் போன்ற உலர் பழங்களும் கிடைக்கும். 
+📞 பயண ஏற்பாடுகளுக்க DM செய்யுங்கள் அல்லது 6380013636 எண்ணை தொடர்பு கொள்ளுங்கள்! 🚗🏕️ 
+#Zications</t>
+  </si>
+  <si>
+    <t>Chikkmangalur</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+📍 சிக்கமகளூரு – பசுமை சூழ்ந்த காபி நிலங்களின் பேரழகு! ☕🌿 
+🏞️ கர்நாடக மாநிலத்தின் மிக உயர்ந்த மலைச்சிகரம் முல்லையனகிரி இங்கு அமைந்துள்ளது. 
+🌱 இந்த மாவட்டத்தின் பெயர் ‘சிக்கமகளூர்’ என்பது ‘சிறிய மகளின் ஊர்’ என்பதைக் குறிக்கும் (Chikka+Magala+Ooru). சக்ரேபட்டணாவின் அரசன் ருக்மாங்கதன் தனது இளைய மகளுக்கு இந்த இடத்தை மணமகன் வீட்டுச் செலவாக வழங்கியதாக நம்பப்படுகிறது. இதேபோல், மூத்த மகளுக்கு வழங்கப்பட்ட பகுதி ஹிரேமகளூர் என அழைக்கப்படுகிறது. 
+🐅 குத்ரேமுக் தேசியப் பூங்கா – விலங்குகளின் பல்வகைச் சிறப்புகளால் பிரசித்தி பெற்ற ஒரு சுற்றுலாத் தலம். 
+☕ இந்தியாவின் காபி பயிர்செய்கையின் வரலாறு, புகழ்பெற்ற சுஃபி சான்யாசி பாபா புத்தானுடன் தொடர்புடையது. யேமனிலிருந்து காபி விதைகளை முதல்முறையாக கொண்டு வந்தவர் அவராகும், இதன் மூலம் இந்தியாவில் காபி விவசாயம் ஆரம்பமானது. 
+🌸 காபி தோட்டங்கள் மார்ச் - ஏப்ரல் மாதங்களில் பூக்கும் போது ஒரு கண்கவர் அழகை தருகின்றன. 
+📞 பயண ஏற்பாடுகளுக்க DM செய்யுங்கள் அல்லது 6380013636 எண்ணை தொடர்பு கொள்ளுங்கள்! 🚗🏕️ 
+#Zications</t>
+  </si>
+  <si>
+    <t>Annegudu</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+📍 ஆனேகுட்டே – கணபதியின் புனித திருத்தலம்! 🐘🙏 
+🏞️ ஆனேகுட்டே கர்நாடகாவின் உடுப்பி மாவட்டத்தில் அமைந்துள்ள ஒரு சிறிய நகரம். 
+🐘 “ஆனே” என்பதன் பொருள் யானை, “குட்டே” என்பதன் பொருள் மலை – எனவே இது "யானை மலை" என அழைக்கப்படுகிறது. 
+🛕 12 அடி உயர ஆனேகுட்டே விநாயகர் சிலை, ஒரே கல்லால் செய்யப்பட்டு, 5 கிலோ தூய தங்கத்தால் ஆன முகம் கொண்டுள்ளது. 
+🔥 ஒரு காலத்தில், இந்த பகுதி வறட்சி மற்றும் மழையின்மையால் பாதிக்கப்பட்டது. இதையடுத்து மகரிஷி அகஸ்தியர் யாகம் நடத்தினார். ஆனால் அப்பொழுது கும்பாசுரன் என்ற அரக்கன் முனிவர்களைத் தொந்தரவு செய்ய முயன்றான். 
+⚔️ அரக்கனைக் கொல்ல பாண்டவரில் ஒருவரான பீமன், விநாயகரைப் பிரார்த்தித்து ஆயுதம் பெற்று அவனை வதைத்தார். 
+இந்த விசித்திரமான தலத்தை வணங்கி, விநாயகர் அருளைப் பெற விரும்புகிறீர்களா? பயண ஏற்பாடுகளுக்காக எங்களை தொடர்பு கொள்ளுங்கள்! 😊✨ 
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️ 
+#Zications</t>
+  </si>
+  <si>
+    <t>ISKCON</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🛕 ISKCON பெங்களூரு – பக்தி இயக்கத்தின் மையம்! ✨🙏 
+🌍 கர்நாடக மாநிலம், பெங்களூருவில் அமைந்துள்ள ISKCON கோவில் பக்தி மற்றும் ஆன்மீக விழிப்புணர்வுக்கு புகழ்பெற்றது! 🕉️🚩 
+📖 A.C. பக்திவேதாந்த ஸ்வாமி பிரபுபாதர் 🙏 இந்தியாவில் இருந்து வெறும் சில டாலர்களுடன் அமெரிக்கா சென்று கிருஷ்ண பக்தியை பரப்பியவர். 🌿📿 
+🎶 "ஹரே கிருஷ்ண, ஹரே கிருஷ்ண, கிருஷ்ண கிருஷ்ண, ஹரே ஹரே, ஹரே ராம, ஹரே ராம, ராம ராம, ஹரே ஹரே" – இன்று உலகம் முழுவதும் ஒலிக்கிறது! 🏵️🕊️ 
+🏞️ தொடக்கத்தில் ஒரு பூங்காவில் இந்த மந்திரத்தை ஜபித்த அவர், பலரை ஈர்த்து ISKCON இயக்கத்தை உருவாக்கினார். 💫🛕 
+📚 இங்கு பக்தி யோகம், கீதா வகுப்புகள், ஆன்மீக கலாச்சாரம் மூலம் கிருஷ்ண பக்தி பரவுகிறது. 🙌✨ 
+🏰 கோவிலின் சிறப்பு – உயரிய ராஜகோபுரம், கிருஷ்ண பரமாத்மாவின் திவ்ய அர்ச்சனை, சுவையான பிரசாதம்! 🍛🕉️ 
+🎶 இந்த தெய்வீகமான ISKCON கோவிலை தரிசிக்க விரும்புகிறீர்களா? 
+📞 பயண ஏற்பாடுகளுக்கு எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636! 🚗🌿 
+#Zications</t>
+  </si>
+  <si>
+    <t>Chamundeshwari temple</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+⛰️ மைசூரின் சக்தி ஸ்தலம் – ஸ்ரீ சாமுண்டேஸ்வரி அம்மன் கோவில்! 🙏✨ 
+🏞️ கர்நாடக மாநிலம், மைசூரில் அமைந்துள்ள சாமுண்டி மலையின் உச்சியில் ஸ்ரீ சாமுண்டேஸ்வரி அம்மன் கோவில் பரம பக்தர்களின் முக்கியத் தலமாக திகழ்கிறது. 🛕🔱 
+🪜 பக்தர்கள் 1,000 படிகளை ஏறி அல்லது வாகனத்தில் மலையின் உச்சிக்கு சென்று அம்மன் அருள் பெறலாம். 🚶‍♂️🚗 
+🪨 9 அடி உயர கற்சிலையாக சாமுண்டேஸ்வரி அம்மன் கோவிலில் அருள்மிகு தரிசனம் அளிக்கிறார். 🌺🔆 
+👹 மலையின் அடிவாரத்தில் மகிஷாசுரனின் வெல்லிய சிலை உள்ளது – அம்மன் அவனை அழித்த சரித்திரம் இங்கே மலர்கிறது! ⚔️🔥 
+🎉 தசரா திருவிழா – கோவிலில் சிறப்பாக கொண்டாடப்படும் மகத்தான பண்டிகை! 🪔🎊 
+🐂 நந்தி பகவானின் பெரிய சிலை கோவில் வழியில் பக்தர்களுக்கு தெய்வீக சக்தியை உணர்த்துகிறது. 🕉️ 
+🙏 இந்த சக்தி ஸ்தலத்தை தரிசிக்க விரும்புகிறீர்களா? 
+📞 பயண ஏற்பாடுகளுக்கு எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636! 🚗🌿 
+#Zications</t>
+  </si>
+  <si>
+    <t>Mysore Palace</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🏰 மைசூர் அரண்மனை – பாரம்பரியத்தின் பிரம்மாண்டக் காட்சி! ✨🎭 
+🪵 1890களில் பழைய அரண்மனை முழுவதுமாக மரத்தால் கட்டப்பட்டிருந்தது – ஆனால் அது தீப்பற்றியதால் புதிய அரண்மனை உருவாக்கப்பட்டது! 🔥🏗️ 
+💡 ஞாயிறு, பொதுவிடுமுறை மற்றும் தசரா பண்டிகையின் போது அரண்மனை நெருங்கி ஒரு லட்சம் விளக்குகளால் பிரகாசிக்கிறது! 💫🏮 (96,000 முதல் 98,000 வரை bulb எனக் கூறப்படுகிறது) 
+🕰️ புதிய அரண்மனை முழுமையாக முடிவடைய 15 ஆண்டுகள் பிடித்தது – காலத்தால் அழியாத ஓர் அற்புதம்! ⏳🛕 
+🌍 இந்தியாவில் தாஜ்மகாலைத் தொடர்ந்து அதிகமானோர் பார்வையிடும் இடமாக மைசூர் அரண்மனை திகழ்கிறது! 🕌👣 
+✨ இந்த பிரம்மாண்ட அரண்மனையை நேரில் காண விரும்புகிறீர்களா? 
+📞 பயண ஏற்பாடுகளுக்கு எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636! 🚗🌏 
+#Zications</t>
+  </si>
+  <si>
+    <t>Hampi Virupaksha Temple</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🔱 விருபாக்ஷர் கோவில் – ஹம்பியின் காலத்தை கடந்த தேவாலயம்! 
+🛕 விருபாக்ஷர் கோவில், ஹம்பி, கர்நாடகா – இந்தியாவின் பழமையான செயலில் இருக்கும் கோவில் (6ம் நூற்றாண்டு)! 📜 
+🔎 கோவிலின் அடியில் மர்மமானใต้நிலை அறைகள் உள்ளன – இதுவரை பலரின் ஆர்வத்தையும் ஆராய்ச்சிகளையும் தூண்டியுள்ளன! 🏺🚪 
+🏹 இராமாயண தொடர்பு – பரம்பரைக் கதைகள் கூறும் போது, இராமரும் சீதாவும் தர்மவனவாசத்தின் போது கோவில் அருகே தங்கியிருந்ததாக நம்பப்படுகிறது! 🔥 
+🏯 160 அடி உயர கோபுரம் – விஜயநகர கலையின் பிரமாண்ட சிறப்பு! ✨ 
+🐘 ஆசீர்வாதம் வழங்கும் யானை – அப்பா (Lakshmi) 🙏🐘 
+🌊 துங்கபத்திரா நதியின் அருகில் அமைந்துள்ளதால், கோவில் பக்தர்களுக்கு பரவசமான அமைதியை வழங்குகிறது! 
+🪨 ஹம்பி நகரின் முக்கிய அடையாளம் – யுனெஸ்கோ (UNESCO) சார்பில் உலகப் பாரம்பரிய தளமாக அறிவிக்கப்பட்டுள்ளது! 🏛️ 
+✨ இந்த வரலாற்று கோவிலுக்கு வந்து இறை ஆசிபெற விரும்புகிறீர்களா? 
+📞 பயண ஏற்பாடுகளுக்கு எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636! 🚗 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>50rs Chariott Hampi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">இனிய காலை வணக்கம் 🌅 
+🛕 விஜயநகரப் பெருமை – வித்தலர் கோவில், ஹம்பி, கர்நாடகா! 
+🚩 தேர் வடிவக் கோவில் – வித்தலர் கோவில் வளாகத்தில் அமைந்துள்ள பிரசித்தமான கல் தேரே! 🏛️ 
+🦅 கருடன் அர்ப்பணிக்கப்பட்ட கோவில் – இந்த கல் தேரானது, விஷ்ணு பெருமாளின் வாகனமான கருடனுக்காக கட்டப்பட்டுள்ளது! 
+📜 இந்தியாவின் மூன்று புகழ்பெற்ற கல் தேர்களில் ஒன்று – ஹம்பி, கொணார்க் மற்றும் மஹாபலிபுரம் சேர்த்து மூன்று மிகப்பிரபலமான கல் தேர்கள்! 🏯 
+💵 ₹50 நோட்டின் பின்புறத்தில் – வித்தலர் கோவிலின் கல் தேரின் அழகு இந்திய கரன்சியில் இடம் பெற்ற பெருமை! 💰 
+✨ இந்த ஆச்சர்யமான வரலாற்று நினைவிடத்தை நேரில் காணலாமா? 
+📞 பயண ஏற்பாடுகளுக்கு எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636! 🚗 
+#Zications 
+</t>
+  </si>
+  <si>
+    <t>Chennakeshwara temple</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🛕 கண்கொள்ளாக் கலை செல்வம் – சென்னகேசவர் கோவில், கர்நாடகா! 
+📜 900 ஆண்டுகளான வரலாற்று கோவில் – ஹோய்சள அரசர்கள் கட்டிய கண்கவர் விஷ்ணு ஆலயம்! 🏛️ 
+🌟 சென்ன+கேசவா – "சென்ன" என்பது அழகானது, "கேசவா" என்பது விஷ்ணு பகவானை குறிக்கும்! 💖 
+🔎 கோவிலின் ஒவ்வொரு தூணும், சுவரும் முழுவதுமாக சிற்பங்களால் செதுக்கப்பட்டுள்ளன – எங்கும் வெறும் இடமின்றி, கண்கொள்ளாக் கலைப்பொக்கிஷம்! 🎭 
+🏗️ கலையின் அதிசயம் – கம்பீரமான கம்பீர வாயில்கள், கண்கவர் கோபுரங்கள், மயக்கும் சிற்பங்கள்! ✨ 
+✨ இந்த மெய்சிலிர்க்கும் சிற்பக்கலை கோயிலை நேரில் காண விருப்பமா? 
+📞 பயண ஏற்பாடுகளுக்கு எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636! 🚗 
+#Zications</t>
+  </si>
+  <si>
+    <t>Badami Caves</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+⛰️ பாதாமி குகைகள் – சாண்ட்ஸ்டோன் பாறைகளில் செதுக்கப்பட்ட சகாப்தக் கோவில்! 
+🏛️ பாதாமி குகை கோவில்கள், கர்நாடகா – பகல்கோட் மாவட்டத்தில் அமைந்துள்ள இவை, 6ம் முதல் 8ம் நூற்றாண்டிற்குள் சாளுக்கியர்கள் கட்டிய கலையின் அதிசயங்கள்! 
+🪨 சேடித் தரிசனம் – இந்த கோவில்கள், மணற்கல் (Sandstone) பாறைகளில் முழுவதுமாக செதுக்கப்பட்டவை! 
+🎭 சாளுக்கியர்களின் கலைப்பொக்கிஷம் – இந்த சிற்பங்கள் அந்த காலத்தின் இந்திய கல் சிற்பக் கலையின் சிறந்த உதாரணங்கள்! 
+🔱 ஹிந்து, ஜைன் மற்றும் புத்தமத கோவில்கள் – பத்மநாபன், விஷ்ணு, மகாவீரர் மற்றும் புத்தர் ஆகியோர் படைக்கலமாக உள்ளனர்! 
+🌄 மாளிகைகளும் இயற்கையும் – சுற்றியுள்ள கிரீடக் குன்றுகள், பழமையான நீர்த்தடங்கள், மற்றும் விறுவிறுப்பான வரலாற்று கதைகள்! 
+✨ இந்த வரலாற்று அதிசயத்துக்கு வருவீர்களா? 
+📞 பயண ஏற்பாடுகளுக்கு எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636! 🚗 
+#Zications</t>
+  </si>
+  <si>
+    <t>Aihole</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🏛 பட்டதக்கல், கர்நாடகா – அரசர்களின் பட்டாபிஷேகம் நடைபெற்ற பரம்பரைக் கோவில் நகரம்! 👑 
+🕌 பத்துக்கும் மேலான கோவில்கள் – வடஇந்திய மற்றும் தென்னிந்திய கட்டிடக்கலையின் சங்கமம்! 🎭 
+🪨 பட்டதக்கல் என்ற பெயரே ‘பட்டாபிஷேகக் கல்’ என்பதை குறிக்கிறது! இங்கு ராஜாக்களின் முடிசூடல் நிகழ்வுகள் நடந்தன. 🏅 
+👑 சாளுக்கிய ராணிகளால் நிர்மாணிக்கப்பட்ட கோவில்கள் – போர்களில் வெற்றி பெற்ற கணவர்களுக்கு நன்றி செலுத்த உருவாக்கப்பட்டன! 💛 
+📜 யுனெஸ்கோ (UNESCO) உலக பாரம்பரிய தளமாக அறிவிக்கப்பட்டுள்ளது! 🌍 
+🎨 நல்லிகேசுவரா கோவில் – வெயிலில் மின்னும் சிவலிங்கத்துடன் சிற்ப கலையின் உச்சம்! 🛕 
+🕰 7ம் மற்றும் 8ம் நூற்றாண்டுகளில் சாளுக்கிய பேரரசின் மாபெரும் கட்டடக் கலையின் மையமாக விளங்கியது! 🏗 
+✨ இந்த வரலாற்று கோவில்களுக்கு வந்து இறை ஆசிபெற விரும்புகிறீர்களா? 
+📞 பயண ஏற்பாடுகளுக்கு எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636! 🚗 
+#Zications</t>
+  </si>
+  <si>
+    <t>Pattadakkal</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🏛 ஐஹோளே – இந்தியாவின் கல் கோவில்களின் மூலதளமான பிரம்மாண்ட ஊர்வலம்! 
+🗿 ஐஹோளே, கர்நாடகா – 5ம் நூற்றாண்டைச் சேர்ந்த 125 கல் கோவில்களுடன் சாளுக்கிய கலையின் முதன்மைத் தளமாக திகழும் இடம்! 
+🪨 சிற்பச் சிறப்பு – கிராமத்தின் வடக்கு பகுதியில் மாலப்ரபா நதிக்கரையில் பூரணமாக கிள்ளிய கோடாரி வடிவ பாறை ஒன்று உள்ளது! 
+👣 பரசுராமனின் அடிச்சுவடு? – நதியில் உள்ள ஒரு பாறையில் மனிதனின் பாதச் சுவடுபோன்ற பதிப்பு காணப்படுவதால், இது விஷ்ணுவின் 6வது அவதாரமான பரசுராமர் கோடாரியை இங்கு கழுவியதாக ஒரு தொன்மக்கதை கூறுகிறது! 
+🔴 சிவப்பு நிலத்தின் ரகசியம் – பரசுராமர் தன்னுடைய கோடாரியை கழுவியதால் நிலம் சிவப்பு நிறம் கொண்டதாகும் என்பது ஐதீகம்! 
+✨ இந்த வரலாற்று சின்னத்துக்கு வருவீர்களா? 
+📞 பயண ஏற்பாடுகளுக்கு எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636! 🚗</t>
+  </si>
+  <si>
+    <t>Gometeshwara</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🗿 கொம்மடேஸ்வரர் (பாகுபலி) சிலை, தர்மஸ்தள, கர்நாடகா – உலகின் மிகப்பெரிய ஒரே கல்லிலான சிலை! 🌍 
+📜 பாகுபலி – துறவு, சகிப்புத்தன்மையின் சின்னம்! ஜைன மறையில் மிக முக்கியமான புனிதர், தனது அகந்தையை வென்று ஞானம் அடைந்தவர். 🙏 
+📜 அதிசயமான வரலாறு – முதல் மஹாமஸ்தகாபிஷேகத்தின் போது, அரசனும் அமைச்சர்களும் பல முயற்சிகள் எடுத்தும் சிலை நனைவே இல்லை! 😲 
+👵 ஒரு வயோதிப பெண் தனது சிறிய பாத்தரத்தால் நீரை ஊற்ற, சிலை முழுவதும் நனைந்தது! இது அகந்தையை உடைக்கும் உண்மை வாழ்வின் பாடமாக கருதப்படுகிறது. 🙏 
+🌊 இன்றும் சிலையின் மூக்கு கீழ் பகுதி நனைந்ததில்லை! இது எவரும் அகந்தையிலிருந்து முழுமையாக விடுபட முடியாது என்பதற்கான குறியீடாக பார்க்கப்படுகிறது. 🔍 
+🏛 இந்த சிற்பக்கலையின் அற்புதத்தை நேரில் பார்ப்பதற்கும், தர்மஸ்தள தரிசனத்திற்கும் தயாரா? 
+📞 பயண ஏற்பாடுகளுக்கு எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636! 🚗 
+#Zications</t>
+  </si>
+  <si>
+    <t>Karnataka Khadi</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🇮🇳 கர்நாடகா காதி கிராமோத்தியோகா சம்யுக்த சங்க (KKGSS), தர்வாட் – இந்திய தேசியக் கொடியை உற்பத்தி செய்ய ஒரே அங்கீகரிக்கப்பட்ட நிறுவனம்! 🇮🇳🏛️ 
+📜 1957ல் நிறுவப்பட்டு, 2005ல் BIS (Bureau of Indian Standards) அங்கீகாரம் பெற்றது. ✅ 
+🏛️ இந்த கொடிகள் அரசு கட்டிடங்கள், தூதரகங்கள் மற்றும் முக்கிய நிறுவனங்களில் பறக்கின்றன. 🎖️ 
+🧵 கைத்தறி முறையில் தயாரிக்கப்படும் தேசியக் கொடி! 🇮🇳 
+கைத்திறன் நூற்பு: கொடி தயாரிக்கப்பட வேண்டிய துணி பாரம்பரிய காடி முறையில் கைத்தறியில் நெய்யப்படுகிறது. 
+வண்ணங்கள் &amp; அர்த்தம்: சாம்பிராணி (தியாகம்) 🟧, வெள்ளை (சமாதானம்) ⬜, பச்சை (வளர்ச்சி) 🟩 – ஒவ்வொன்றும் தேசத்தின் அடையாளம்! 🎨 
+அசோக சக்கரம்: 24 அச்சுகள் கொண்ட கடல் நீல வண்ண சக்கரம், தேசிய கொடியின் மையக்கருத்தாக இருக்கிறது. ⚙️ 
+✨ இந்த தேசிய பெருமையை நேரில் பார்க்க விரும்புகிறீர்களா? தர்வாட் பயணிக்க தயாரா? 
+📞 பயண ஏற்பாடுகளுக்கு எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636! 🚗 
+#Zications</t>
+  </si>
+  <si>
+    <t>Kittur Fort</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🛡️ கித்தூர் கோட்டை – பெலகாவி, கர்நாடகா 
+👑 கித்தூர் ராணி சென்னம்மா – பிரிட்டிஷாருக்கு எதிராக போராடிய கர்நாடகாவின் முதல் வீர மங்கையர்! ⚔️🔥 
+💔 ஆனால் துரோகிகள் ஆயுத குணப்பொடியில் மாடுச் சாணம் கலக்கி, பிரிட்டிஷாருக்கு எதிரான போரில் கோட்டையை பாதுகாக்க முடியாத நிலை உருவாக்கப்பட்டது. 🏰💥 
+📜 1857 போருக்கு முன்னரே, 1824 ஆம் ஆண்டு தனது வீரத்தால் பிரிட்டிஷாருக்கு எதிராக முதல் போரை நடத்தினார்! ⏳🚩 
+🎯 முதல் போரில் வெற்றி பெற்று, இரண்டு பிரிட்டிஷ் அதிகாரிகளை சிறையிலடைத்தார்! 🏹🎖️ 
+✨ இந்த வரலாற்று கோட்டைக்கு வரிசென்று பார்வையிட விரும்புகிறரகள? 
+📞 பயண ஏற்பாடுகளுக்கு எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636! 🚗 
+#Zications</t>
+  </si>
+  <si>
+    <t>Sri Anantha Padmanabha Swamy Temple</t>
   </si>
   <si>
     <t>இனிய காலை வணக்கம் 🌅
-🛡️ கித்தூர் கோட்டை – பெலகாவி, கர்நாடகா
-👑 கித்தூர் ராணி சென்னம்மா – பிரிட்டிஷாருக்கு எதிராக போராடிய கர்நாடகாவின் முதல் வீர மங்கையர்! ⚔️🔥
-💔 ஆனால் துரோகிகள் ஆயுத குணப்பொடியில் மாடுச் சாணம் கலக்கி, பிரிட்டிஷாருக்கு எதிரான போரில் கோட்டையை பாதுகாக்க முடியாத நிலை உருவாக்கப்பட்டது. 🏰💥
-📜 1857 போருக்கு முன்னரே, 1824 ஆம் ஆண்டு தனது வீரத்தால் பிரிட்டிஷாருக்கு எதிராக முதல் போரை நடத்தினார்! ⏳🚩
-🎯 முதல் போரில் வெற்றி பெற்று, இரண்டு பிரிட்டிஷ் அதிகாரிகளை சிறையிலடைத்தார்! 🏹🎖️
-✨ இந்த வரலாற்று கோட்டைக்கு வரிசென்று பார்வையிட விரும்புகிறரகள?
-📞 பயண ஏற்பாடுகளுக்கு எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636! 🚗</t>
+📍 ஆந்திரப் பிரதேசத்தின் அனந்தகிரி மலைப்பகுதியில் உள்ள ஸ்ரீ அனந்த பத்மநாப சுவாமி கோவில் – பக்தியும் ஒற்றுமையும் கலந்த புனித ஸ்தலம்! 🙏✨
+இது மகாவிஷ்ணுவுக்கு அர்ப்பணிக்கப்பட்ட ஒரு பழமையான கோவில், ஆனாலும் அதன் வரலாறு அதனை 더욱 விசேஷமாக்குகிறது. ஒரு நிஜாம் அரசர் இந்த கோவிலை கட்டியதற்குப் பின்னணியில் ஒரு சிறப்பான நோக்கம் இருந்தது – மதங்களுக்கு இடையேயான ஒற்றுமையை வலியுறுத்த! 🏛️☮️
+🌿 அனந்தகிரி மலைகளின் மையக்கோடி!
+🔹 இயற்கை மற்றும் ஆன்மிகம் ஒன்றிணைந்துள்ள இடம் – இதன் அமைதி, சுற்றுலாப் பயணிகளையும், பக்தர்களையும் ஈர்க்கிறது 🌄.
+🔹 கடவுளின் "அனந்த" ரூபம் – இங்கே விஷ்ணு பாதியில் நீரின் மீது படுத்திருக்கும அதிசய ரூபத்தில் காணப்படுகிறார் 🐍🙏.
+🔹 நாகலோகம் &amp; அனந்த ஞானம் – இங்கு வழிபடும் பக்தர்கள், நாக தோஷ நிவாரணத்திற்கும், மனஅமைதிக்காகவும் வருகின்றனர்.
+இந்த தெய்வீகத் திருத்தலத்திற்கு நீங்கள் சென்று, அதன் அமைதியையும், அதிசயங்களையும் அனுபவிக்க தயாரா? 🤩✨
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Sri Mallikarjuna Swamy Temple</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅
+📍 ஸ்ரீ மல்லிகார்ஜுன சுவாமி கோவில் ஆந்திரப் பிரதேசத்தில் அமைந்துள்ளது! 🏛️✨
+இந்த பழமையான கோவில், 12 ஜோதிர்லிங்கங்களில் ஒன்றாக திகழ்வதால், அதற்கு ஒரு தனிப்பட்ட மகத்துவம் உண்டு 🙏. இது கைலாயத்திற்கே இணையான புனிதத் தலம் என சிவபக்தர்கள் நம்புகின்றனர்.
+🔥 இந்த கோவில் ஏன் சிறப்பானது?
+🔹 சிவன் &amp; சக்தியின் இணைரூபம் – இங்கே மல்லிகார்ஜுனர் (சிவன்) மற்றும் ப்ரம்மரம்பிகை (பார்வதி) இணைந்து அருள்பாலிக்கின்றனர் 💕.
+🔹 சகல பாபங்களையும் நீக்கும் சக்தி – இங்கே ஒரு தரிசனம் பெற்றாலே முன்னோர் தப்பிய பாவங்களிலிருந்து விடுபடலாம் என்று நம்பப்படுகிறது 🙏.
+🔹 நாடோடி பக்தர்களின் புனிதப் பயணம் – பக்தர்கள் பாதயாத்திரையாக வந்து, மலையை ஏறி, இறைவனை தரிசிப்பதை ஒருகாலம் கடமை எனக் கருதினர் 🏔️.
+🔹 சிறப்பு பூஜைகள் &amp; திருவிழாக்கள் – மகாசிவராத்திரி &amp; கார்த்திக தீபம் போன்ற முக்கிய நாள்களில், கோவில் பக்தர்களால் நிரம்பி வழிகிறது 🎇.
+இந்த மர்மமிக்க &amp; புனிதமான ஜோதிர்லிங்க தரிசனம், உங்கள் வாழ்வில் ஒரு முறை சந்திக்க வேண்டிய அனுபவமா? 🤩✨
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Bhramaramba Devi Temple</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅
+📍 ப்ரமராம்பா தேவி கோவில் ஆந்திரப் பிரதேசத்தில் அமைந்துள்ளது! 🙏✨
+இந்த கோவில் மல்லிகார்ஜுனர் கோவிலின் பக்கத்திலேயே அமைந்துள்ளதாலும், 18 சக்தி பீடங்களில் ஒன்றாக கருதப்படுவதாலும் அதன் மகத்துவம் அதிகம். இங்கே பார்வதி தேவியை "ப்ரமராம்பிகை" என்ற பெயரில் வழிபடுகிறார்கள், அதாவது "தேவத்தொட்டியின் மகளிரும் தேவியானாள்" என அர்த்தம் கொண்டது.
+🌺 இந்த கோவில் ஏன் சிறப்பு?
+🔹 மாதாவின் சக்தி பீடம் – இங்கே சதீ தேவியின் உதடுகள் விழுந்ததாக நம்பப்படுகிறது, அதனால் இது ஒரு மிக முக்கியமான சக்தி பீடமாக உள்ளது 🔥.
+🔹 ப்ரமரா – தேனீயாக மாற்றிய தெய்வம் 🐝 – புராணக் கதைகளில், மாதா பார்வதி ஒரு தேனீ (Bhramara) வடிவம் கொண்டு, ஒரு அரக்கனை அழித்ததாக கூறப்படுகிறது.
+🔹 சிவன் &amp; சக்தி ஒரே இடத்தில் – மல்லிகார்ஜுனர் மற்றும் ப்ரமராம்பிகை ஒரே தலத்தில் இருப்பது, பக்தர்களுக்கு இருவரின் அருள் ஒருசேர கிடைக்கும் என்பதைக் குறிக்கிறது 💕.
+ஒரே இடத்தில் சிவனும், சக்தியும் வழிபடப்படும் புனிதத் தலம் – நீங்கள் தரிசிக்க தயாரா? 🤩✨
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Srisailam Dam</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅
+📍 ஸ்ரீசைலம் ஆந்திரப் பிரதேசத்தில் அமைந்துள்ளது! 🌊🏞️
+கிருஷ்ணா நதியின் மீது உருவாக்கப்பட்ட ஸ்ரீசைலம் அணை, இந்தியாவின் மிகப்பெரிய அணைகளில் ஒன்றாக திகழ்கிறது. இந்த அணையின் பிரம்மாண்ட தோற்றமும், இயற்கையின் அழகும் சுற்றுலா பயணிகளை ஈர்க்கிறது.
+🌧️ மழைக்காலத்தில் மாயாஜாலம்!
+🔹 மழைக்காலத்தில், அணை நிறைந்து, கட்டுப்பாட்டுக்குள் திறக்கப்படும் நீர்வழிகள் பார்வையாளர்களுக்கு கண்கொள்ளாக் காட்சியளிக்கின்றன 💦.
+🔹 அணையின் மேல் நின்று, நீர்வீழ்ச்சியின் சத்தத்தையும், அதன் வலிமையையும் உணருவது ஒரு அபூர்வ அனுபவம் ⚡.
+🔹 இயற்கை மற்றும் தொழில்நுட்பத்தின் ஒருங்கிணைப்பு – அணையின் மிகப்பெரிய ஹைட்ரோ-எலக்ட்ரிக் திட்டம், எலெக்டிரிசிட்டி உற்பத்தியில் முக்கிய பங்காற்றுகிறத ⚙️.
+🔹 கோயில்கள் &amp; சுற்றுலா தலங்கள் – ஸ்ரீ மல்லிகார்ஜுனர் கோவில், ப்ரமராம்பிகை கோவில், மற்றும் பல புனித தலங்கள் அணைக்குப் பக்கத்திலேயே உள்ளன 🙏.
+நீர், மலைகள், மற்றும் ஆன்மிகம் ஒருங்கிணைந்த ஸ்ரீசைலம் அனுபவத்தை நீங்கள் காணத் தயாரா? 🤩✨
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Akkamahadevi Caves</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅
+📍 அக்காமஹாதேவி குகைகள் ஆந்திரப் பிரதேசத்தில் அமைந்துள்ளன! ⛰️🚤
+கிருஷ்ணா நதியின் வழியாக படகில் பயணித்துப் போகக்கூடிய இந்த இயற்கை உருக்குலைந்த குகைகள், 12ஆம் நூற்றாண்டின் புகழ்பெற்ற பக்தை அக்காமஹாதேவி அவர்களின் பெயரில் அழைக்கப்படுகின்றன.
+🕉️ இந்த குகைகள் ஏன் சிறப்பு?
+🔹 இயற்கை உருவாக்கிய சிவலிங்கம் – குகைகளின் உள்ளே, தானாக உருவான சிவலிங்கம் உள்ளது, இது பக்தர்களுக்கு தெய்வீக அனுபவம் அளிக்கிறது 🙏.
+🔹 அக்காமஹாதேவியின் தவம் – கூறப்படுவதாவது, அக்காமஹாதேவி இங்கு தவம் இருந்து, இறையருளைப் பெற்றார் ✨
+🔹 படகு பயண அனுபவம் – கிருஷ்ணா நதியின் நீலத்தோன்றல், சுற்றியுள்ள மலைகள், மற்றும் குகைகளை அடையும் பயணம் itself ஒரு வித்தியாசமான அனுபவமாக இருக்கும் 🚤.
+இயற்கையின் அதிசயமும், ஆன்மிகத் தன்மையும் ஒருங்கிணைந்த அக்காமஹாதேவி குகைகளை நீங்கள் தேடி செல்லவேண்டாம்? 🤩✨
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Srisailam Tiger Reserve</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅
+📍 ஸ்ரீசைலம் புலிகள் காப்பகம் ஆந்திரப் பிரதேசத்தில் அமைந்துள்ளது! 🐅🌿
+3,500 சதுர கிலோமீட்டர் பரப்பளவில் பரவியுள்ள இது, இந்தியாவின் மிகப்பெரிய புலிகள் காப்பகங்களில் ஒன்றாகும். இங்கு வாழைநிலைவனங்கள், மலையிடங்கள், ஆறு பகுதிகள் என இயற்கையின் பல்வேறு வடிவங்கள் காணப்படுகின்றன.
+🌳 இந்த காப்பகம் ஏன் சிறப்பு?
+🔹 புலிகளின் பாதுகாப்புக் கோட்டம் – இந்தியாவின் "தவளைப் பட்டையுடன்" மிரண்டும் மன்னன், புலிகள் இங்கு பாதுகாப்பாக வாழ்கின்றன 🐯.
+🔹 விலங்குகள் ராஜ்யம்! – புலிகள் மட்டுமல்ல, நீலகிரி திமிங்கலங்கள், சம்பார் மான்கள், கரடி, காட்டு நாய்கள், மற்றும் பல்வேறு வகையான பறவைகள் இங்கு காணப்படுகின்றன 🦌🐻🦜.
+🔹 கிருஷ்ணா நதியின் அழகு – இந்த காப்பகத்திற்குள் கிருஷ்ணா நதி ஓடுவதால், இது நீர்ப்பாசனத்துக்கும், உயிரினங்களின் வாழ்வுக்கும் முக்கியமான இடமாகும் 💦.
+மிருகங்கள், பசுமை, மற்றும் திகில் நிறைந்த இப்பகுதியை ஒரு தடவையாவது பார்க்க தயாரா? 🤩✨
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Pathala Ganga</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅
+📍 பாதாள கங்கா ஆந்திரப் பிரதேசத்தில், ஸ்ரீசைலத்தில் அமைந்துள்ளது! 🌊🏞️
+கிருஷ்ணா நதியின் புனிதத் தளம், பாதாள கங்கா, பக்தர்களின் ஆன்மீக நம்பிக்கைகளுடன் இணைந்த ஒரு முக்கிய இடமாக உள்ளது. இங்கு நீராடுவது பாவங்களை தீர்க்கும் என்றும், மறுபிறவி நல்வாழ்க்கைக்கு வழிவகுக்கும் என்றும் நம்பப்படுகிறது 🙏.
+✨ இந்த இடம் ஏன் பிரபலமானது?
+🔹 புனித நீராடல் – பக்தர்கள் நதியில் ஒரு முறை முழுகினால், அவர்களின் பாவங்கள் கழியும் என்று நம்புகிறார்கள் 🚿
+🔹 அழகிய இயற்கை சூழல் – மலைகளால் சூழப்பட்ட கிருஷ்ணா நதி, காலையில் &amp; மாலையில் பார்க்க மிகவும் அற்புதமாக இருக்கும் 
+🔹 கேபிள் கார் &amp; படகு சவாரி – பாதாள கங்காவை அடைய கேபிள் கார் மூலம் மேலிருந்து பார்வையிடலாம், அல்லது படகு சவாரி மூலம் அருகில் சென்று அனுபவிக்கலாம் 🚠
+🔹 ஸ்ரீ மல்லிகார்ஜுனர் கோவிலுடன் இணைப்பு – கோவில் தரிசனத்திற்கு முன்னும் பின்னும், பக்தர்கள் இங்கு நீராடி, தங்கள் ஆன்மீக பயணத்தை பூர்த்தி செய்கிறார்கள் 🙌.
+புனித நீரும், இயற்கையின் அற்புதமும் சேர்ந்த இந்த இடத்தை நீங்கள் அனுபவிக்க தயாரா? 🤩✨
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Shikaresvara Temple</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅
+📍 சிகரேஸ்வரர் கோவில் ஆந்திரப் பிரதேசத்தின் ஸ்ரீசைலத்தில் அமைந்துள்ளது! 🏔️🙏
+ஸ்ரீசைலத்தின் மிக உயர்ந்த பகுதியில் அமைந்துள்ள இந்த கோவில், சிவபக்தர்களுக்கு மட்டுமல்ல, இயற்கை ரசிகர்களுக்கும் ஒரு மகத்தான இடமாகும். "சிகரம்" என்றால் உச்சி, எனவே இங்கே பக்தர்கள் சிவனை "மலை உச்சியில் நிற்கும் இறைவன்" என்ற வகையில் வழிபடுகிறார்கள்.
+🌄 இந்த கோவில் ஏன் சிறப்பு?
+🔹 உயர்ந்த பார்வை நுண்ணறிவு! – இங்கிருந்து ஸ்ரீசைலம் நகரத்தையும், கிருஷ்ணா நதியின் அழகையும் ஒரே நேரத்தில் பார்க்கலாம் 👀🌊.
+🔹 பழமை &amp; ஆன்மிக சக்தி – இந்த பழமையான கோவிலின் மந்திரமயமான சூழலும், அமைதியான காற்றும் மனதை உற்சாகப்படுத்தும் 🍃.
+மலை உச்சியில் சிவனை தரிசிக்க, நீங்களும் வரலாமே? 🤩✨
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Main Sanctum - Uma Maheshwari</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅
+📍 உமா மகேஸ்வரர் கோவில் ஆந்திரப் பிரதேசத்தில் அமைந்துள்ளது! 🏛️🙏
+இந்த பழமையான கோவிலின் கர்பகிருஹத்தில் (மூலஸ்தானம்), சிவபெருமான் "உமா மகேஸ்வரர்" என பராசக்தியுடன் உறைவதாக வழிபடப்படுகிறார். அம்மன் பார்வதியுடன் (உமா), சிவபெருமான் மகேஸ்வரராக திருநிலைபெறுகிறார், இதனால், இவ்விடத்தில் இறைவனுக்கும் இறைவிக்குமான ஒற்றுமை தெய்வீகமாகக் கருதப்படுகிறது.
+🏛️ இந்த கர்பகிருஹம் ஏன் சிறப்பு?
+🔹 கர்பகிருஹத்தின் ஒளியிழைப்பு &amp; அமைதி – தெய்வீக ஒளியுடன் கூடிய இந்த கருவறை பகுதி, பக்தர்களுக்கு இறைநிலை உணர்ச்சியை ஊட்டும் 🔥.
+🔹 பழமையான கல்வெட்டுகள் &amp; சிற்பங்கள் – கோவில் கோபுரங்கள் மற்றும் மூலஸ்தானத்தின் தூண்களில், புராணங்களின் கதைகளை செப்பணிகள் &amp; சிற்பங்களாக காணலாம் 📜.
+பக்தி &amp; கலை இணைந்த இத்தலத்தை தரிசிக்க நீங்கள் தயாரா? 🤩✨
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Pushkarini</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅
+📍 புஷ்கரிணி தீர்த்தம் ஆந்திரப் பிரதேசத்தில், உமா மகேஸ்வரர் கோவிலில் அமைந்துள்ளது! 💦🙏
+இந்த புனித தீர்த்தம், புஷ்கரிணி, கோவிலுக்குள் இருக்கும் ஒரு சிறப்பு குளமாகும். சுற்றியுள்ள மலைகளிலிருந்து நீர், நந்தி சிலையின் வாய்வழியாக பாய்ந்து வந்து புஷ்கரிணியில் நிரம்புகிறது, இது ஒரு அற்புதமான இயற்கை வடிவமைப்பு!
+✨ இந்த தீர்த்தம் ஏன் சிறப்பு?
+🔹 நீரின் மறையாத வளம் – ஆண்டுதோறும், எந்த பருவத்திலும், இந்த தீர்த்தம் எப்போதும் நீரால் நிரம்பி இருக்கும், இது ஒரு அதிசயமாக கருதப்படுகிறது 🌊.
+🔹 பாபவிமோசனம் (பாவநாசம்) – இங்கு நீராடினால், அனைத்து பாவங்களும் கழிந்து, ஆத்மா பரிசுத்தமாகும் என்று பக்தர்கள் நம்புகிறார்கள் 🚿🙏.
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Agastya Cave</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅
+📍 அகஸ்தியர் குகை ஆந்திரப் பிரதேசத்தில், ஸ்ரீசைலத்தில் அமைந்துள்ளது! ⛰️🙏
+இந்த புனித குகை, மகரிஷி அகஸ்தியர் சிவனை தியானித்த இடமாக கருதப்படுகிறது. ஆழமான அமைதியும், ஆன்மிக ஆற்றலும் நிறைந்த இவ்விடம், பக்தர்களுக்கு ஒரு தெய்வீக அனுபவத்தை வழங்குகிறது. குகைக்கு செல்ல, சுமார் 120 படிகள் ஏற வேண்டும், ஆனால் அதன் விளைவாக ஒரு பரவசமான ஆன்மிக தரிசனம் காத்திருக்கிறது.
+✨ இந்த குகை ஏன் சிறப்பு?
+🔹 சிறிய ஆன்மிகக் கோயில் – குகைக்குள், அகஸ்திய முனிவருக்காக அமைக்கப்பட்ட ஒரு சிறப்பு சந்நிதி உள்ளது 🛕.
+🔹 இயற்கையுடன் ஆன்மிகம்! – மலைகளால் சூழப்பட்டு, அமைதியான சூழலில் இருக்கும் இந்த குகை, பக்தர்களுக்கு உள்ளார்ந்த அமைதியையும், இறைநெருக்கத்தையும் ஏற்படுத்தும் 🌿.
+அகஸ்திய முனிவரின் தியான சக்தியை உணர, நீங்கள் இந்த தெய்வீக குகையை தேடி செல்லவேண்டாமா? 🤩✨
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Venkateswara Cave</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅
+📍 வேங்கடேஸ்வரர் குகை ஆந்திரப் பிரதேசத்தில், ஸ்ரீசைலத்தில் அமைந்துள்ளது! ⛰️🙏
+இந்த ஆன்மிக ரகசியம் நிறைந்த குகையின் உள்ளே, ஒரு உடைந்த வேங்கடேஸ்வரர் சிலை உள்ளது. இது திருமலையில் உள்ள பிரசித்திபெற்ற சிலைக்கு முன்பாகவே உருவாக்கப்பட்டதாகக் கூறப்படுகிறது. ஆனால் சிலையில் சேதம் ஏற்பட்டதால், வழிபாடு செய்ய முடியவில்லை. இதனால், அகஸ்திய முனிவர் இங்கு ஒரு சிவலிங்கத்தை பிரதிஷ்டை செய்ததாக வரலாறு கூறுகிறது.
+✨ இந்த குகை ஏன் வியப்பூட்டும்?
+🔹 இடம் மாறிய இறைமயம் – வேங்கடேஸ்வரர் சிலை உடைந்ததால், அதற்கு பதிலாக சிவன் பிரதிஷ்டை செய்யப்பட்டுள்ள சிறப்புமிக்க இடம் 🔱.
+🔹 மர்மங்களால் சூழப்பட்ட குகை – இங்கு வந்த பக்தர்கள், அந்த உடைந்த சிலையின் சக்தியை உணரலாம் என்ற நம்பிக்கை உள்ளது 🤯.
+🔹ருப்பதி முன்பே இருந்ததாகக் கருதப்படும் ஒரு தெய்வீக இடத்தை பார்ப்பதற்காய், நீங்கள் வருவீர்களா? 🤩✨
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Monolithic Nandi</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅
+📍 லேபாக்ஷி ஒரே கல்லில் வடிக்கப்பட்ட நந்தி ஆந்திரப் பிரதேசத்தில் அமைந்துள்ளது! 🐂🏛️
+வீரபத்திரர் கோவிலிலிருந்து சுமார் 1 கி.மீ தொலைவில், இந்த மாபெரும் நந்தி சிலை, அதன் வியப்பூட்டும் அளவாலும், சிற்பக்கலையின் நேர்த்தியாலும் பிரசித்தி பெற்றது. ஒரே ஒரு கிரானைட் கல்லிலிருந்து வெட்டியெடுக்கப்பட்ட இந்த நந்தி 🪨, இந்தியாவின் மிகப்பெரிய ஒரே கல்லில் வடிக்கப்பட்ட சிலைகளில் ஒன்றாகும்.
+✨ இந்த நந்தி ஏன் பிரமிக்க வைக்கும்?
+🔹 ஒரே கல்லில் வெட்டிய சிற்பக்கலை மஹத்துவம் – 4.5 மீட்டர் உயரம் &amp; 8.23 மீட்டர் நீளமுடைய இந்த நந்தி, சிற்ப கலையின் அதிசயமாக கருதப்படுகிறது 🎨.
+🔹 வீரபத்திரர் கோவிலை நோக்கிய பக்தி – இந்த நந்தி, நேராக கோவிலை நோக்கி அமர்ந்துள்ள அதிசய அமைப்பு, பக்தர்களை வியப்பில் ஆழ்த்துகிறது 🙏.
+இந்த மாபெரும் நந்தியை நேரில் பார்த்து, அதன் தெய்வீக அசைக்க முடியாத சக்தியை உணர விரும்புகிறீர்களா? 🤩✨
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Warangal Fort</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅
+📍 வாரங்கல் ராமப்பா கோவில் தெலுங்கானாவில் அமைந்துள்ளது! 🏛️✨
+ருத்ரேஸ்வரர் கோவில் என்று அறியப்படும் ராமப்பா கோவில், 13ஆம் நூற்றாண்டில் கட்டப்பட்ட ஒரு சிறப்புமிக்க கலாச்சாரச் சின்னமாகும். இந்த கோவில் யுனெஸ்கோ உலக பாரம்பரியச் சின்னமாக அங்கீகரிக்கப்பட்டுள்ளது 🎖️.
+✨ இந்த கோவில் ஏன் தனிப்பட்டது?
+🔹 "மிதக்கும்" செங்கல்களின் அதிசயம் – கோவிலின் கூரையில் பயன்படுத்தப்பட்ட இலகு செங்கல்கள் நீரில் மிதக்கும் தன்மை கொண்டவை, இது ஒரு பிரம்மாண்டமான கட்டிடக்கலை முயற்சியாக கருதப்படுகிறது 🧱.
+🔹 அற்புதமான மணற்கல் சிற்பங்கள் – புராண கதைகளையும், நடனக் காட்சிகளையும் விவரிக்கும் ஆழமான சிற்ப வேலைப்பாடுகள், இந்த கோவிலை மெய்சிலிர்க்கச் செய்கின்றன 🎨.
+🔹 வெளியே இருக்கும் நந்தி மண்டபம் – பெரிய அழகான நந்தி சிலை, கோவிலின் மைய惓ட்பாக அமைந்துள்ளது 🐂.
+கலை, கட்டிடக்கலை, மற்றும் ஆன்மிகம் கலந்த இந்த கோவிலை பார்வையிட நீங்கள் தயாரா? 🤩✨
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Srivari Mettu</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅
+📍 ஸ்ரீவாரி மேட்டு, ஆந்திரப் பிரதேசத்தில் திருப்பதி அருகே அமைந்துள்ளது! 🛕✨
+ஸ்ரீவாரி மேட்டு என்பது திருமலை கோவிலுக்குச் செல்லும மிகவும் குறுகிய நடைபாதை ஆகும். மொத்தம் 2,350 படிகள் கொண்ட இந்த பாதை, முழுமையாக அலகிலாபச்சி காட்டினூடாக செல்கிறது, இது பயணத்திற்கு ஒருகுளிர்ச்சி தரும் அனுபவமாக இருக்கும் 🌿.
+🔹 அதிக நேரம் பிடிக்காது – அலிபிரி மேட்டைவிட, இந்த பாதையை கடக்க 45-60 நிமிடங்கள் மட்டுமே ஆகும் ⏳.
+🔹 பகவான் வெங்கடேஸ்வரரின் பாத அடையாளங்கள் – பாதையின் தொடக்கத்தில் பக்தர்கள் தரிசிக்கலாம் 🙏.
+🔹 கோயிலுக்கு மிக அருகில் முடிகிறது – கோவில் நுழைவாயிலில் நேரடியாக சென்றடையும் சிறப்பான நடைபாதை 🚶‍♂️.
+🔹 நிழல் மற்றும் குடிநீர் வசதி – வழியில் தண்ணீர், அமர்வதற்கான இடங்கள், உணவகங்கள் உள்ளன 💧🍴.
+🔹 பகவானின் அருள் பெறும் வழி – பாதயாத்திரை செய்வதன் மூலம் பக்தர்கள் தங்கள் அர்ப்பணிப்பை வெளிப்படுத்துகிறார்கள் 🌟.
+நீங்களும் இந்த தெய்வீக பாதையை கடக்க தயாரா? 🤩✨
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Bhadrakali Temple</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅
+📍 வாரங்கல் பத்ரகாளி அம்மன் கோவில் தெலுங்கானாவில் அமைந்துள்ளது! 🛕🔥
+பத்ரகாளி தேவிக்கு அர்ப்பணிக்கப்பட்ட இந்த புனித கோவில், பவித்ரமான பத்ரகாளி ஏரியின் கரையில் அமைந்துள்ளது. இது அம்மனை வழிபடுவதற்காக கட்டப்பட்ட மிகப் பழமையான கோவில்களில் ஒன்றாகும் மற்றும் இந்த பகுதியில் முக்கியமான பக்தி தலமாக விளங்குகிறது.
+✨ இந்த கோவில் ஏன் சிறப்பு?
+🔹 பழமையான அம்மன் கோவில் – சமுதாயத்தின் நலனுக்காக, பல நூற்றாண்டுகளுக்கு முன் கட்டப்பட்ட ஒரு முக்கிய சக்தி பீடம் 🌺.
+🔹 ஏரிக்கரையில் அமைந்த அமைதி – பத்ரகாளி ஏரியின் நீர்கரையில் அமைந்து, கோவிலை மேலும் தெய்வீகமாக மாற்றுகிறது 🌊.
+🔹 அரண்மனை போன்ற கட்டிடக்கலை – அம்மனின் சிலை, மிக அழகாகவும், சக்தி மிகுந்ததாகவும் சிற்பிக்கப்பட்டுள்ளது 🎨.
+🔹 ஆன்மிக மற்றும் சுற்றுலா முகப்பு – பக்தர்களும், வரலாற்று ஆர்வலர்களும் அதிகம் வருகை தரும் ஒரு முக்கிய சுற்றுலாத் தளம் 🌿.
+அம்மனின் அருளை பெற்றிட வாருங்கள்! 🔥🙏
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Bogatha Waterfall</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅
+📍 போகதா அருவி தெலுங்கானாவின் முலுகு மாவட்டத்தில் அமைந்துள்ளது! 🌊🌿
+"நயாகரா அருவி" என்று அழைக்கப்படும் போகதா அருவி, தெலுங்கானாவின் இரண்டாவது பெரிய அருவியாகும். சுற்றியுள்ள பசுமை சூழ்ந்த காட்டுகளின் மத்தியில், இந்த மாபெரும் நீர்வீழ்ச்சி பார்வையாளர்களுக்கு ஒரு கண்கொள்ளாக் காட்சய வழங்குகிறது.
+✨ இந்த அருவி ஏன் பிரபலமானது?
+🔹 "நயாகரா" என்ற சிறப்புப் பெயர் – அருவியின் வீழ்ச்சி மண்டிய நீர்த்துளிகள், நயாகரா அருவியை நினைவுபடுத்தும் அளவுக்கு அழகாக இருக்கும் 🌊.
+🔹 முழு பசுமை சூழல் – அருவியை சுற்றி அடர்ந்த காடுகளால் சூழப்பட்டு, இயற்கையின் முழு மகத்துவத்தை வெளிப்படுத்தும் 🌿🍃.
+🔹 மூலிகை காடுகளின் மத்தியில் ஒரு அற்புதம் – இங்கே வருவது ஒரு சிறந்த ஃபோட்டோ கேட்சாகும் 📸.
+🔹 ஆற்றின் மீது உள்ள பழமையான பாலம் – அருவிக்கு செல்லும் வழியில் ஒரு பழைய கட்டிடக்கலையை பிரதிபலிக்கும் பழமையான பாலம் உள்ளது 🌉.
+இந்த மயக்கும் இயற்கை அதிசயத்தை நேரில் கண்டுகளிக்க நீங்கள் தயாரா? 🤩✨
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Lakshmi Narasimha Swamy Temple</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅
+📍 லட்சுமி நரசிம்மர் கோவில் (நம்பல்லி குட்டா) தெலுங்கானாவில் அமைந்துள்ளது! 🛕🦁✨
+திருவிளையாடல் வண்ணம் விளங்கும் லட்சுமி நரசிம்மர் திருக்கோவில், அதன் உயரமான இடத்திலிருந்து கண்கவர் காட்சிகளை வழங்கும் ஆன்மிகத் தலம். இந்த கோவில் விஷ்ணுவின் அவதாரமான நரசிம்மருக்கு அர்ப்பணிக்கப்பட்டுள்ளது, மேலும் பக்தர்கள் இங்கு நரசிம்மரின் அருள் பெற்றிட வருகின்றனர்.
+✨ இந்த கோவில் ஏன் தனிப்பட்டது?
+🔹 நாகதேவதையின் பிரமிக்கவைக்கும் கோவில் – நரசிம்மர் கோவிலுக்கு செல்லும் வழியில், ஒரு பாம்பின் வடிவில் உருவாக்கப்பட்ட நாக தேவதையின் கோவில் உள்ளது 🐍.
+🔹 பாம்பின் உடலுக்குள் நுழையும் அனுபவம் – இந்த நாக கோவில், ஒரு பாம்பின் உருவில் கட்டப்பட்டு, பக்தர்கள் அதன் "உதரத்தினுள்" (துன்னலில்) நுழைந்து செல்லும் அதிசய அமைப்பு கொண்டது 😲.
+🔹 ஆன்மிகம் &amp; இயற்கையின் இணைவு – இந்த இடம், பக்தி மட்டுமின்றி, சுற்றுலா மற்றும் புகைப்பட ஆர்வலர்களுக்கும் சிறந்த இடம் 📸.
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Thousand pillar temple</t>
+  </si>
+  <si>
+    <t>📍 ஆயிரம் தூண்கள் கோவில், வாரங்கல் - தெலுங்கானா 🏛️✨
+13ஆம் நூற்றாண்டில் கட்டப்பட்ட வாரங்கல் ஆயிரம் தூண்கள் கோவில் (Thousand Pillar Temple) காக்கதிய வம்சத்தின் சிறந்த கட்டிடக்கலைப் பொக்கிஷமாகும். இந்த கோவில் விஷ்ணு, சிவன், சூரியன் ஆகிய மூன்று மூலவர்களுக்கு அர்ப்பணிக்கப்பட்டு, அதன் சிற்பக்கலையால் உலகம் முழுவதும் புகழ்பெற்றது.
+✨ இந்த கோவில் ஏன் சிறப்பு?
+🔹 ஆயிரம் சிற்ப தூண்கள் – ஒவ்வொரு தூணும் தனித்தன்மை வாய்ந்த அழகிய சிற்பங்களால் வடிவமைக்கப்பட்டுள்ளது 🏛️.
+🔹 நந்தி மண்டபம் – கருங்கல்லால் செதுக்கப்பட்ட மிக அழகான பெரிய நந்தி சிலை இங்கு உள்ளது 🐂.
+🔹 காக்கதியர் கால கட்டிடக்கலை – இந்த கோவில் அந்த காலத்து அற்புதமான கலை &amp; கட்டிட தொழில்நுட்பத்தைக் காட்டுகிறது 🎨.
+🔹 கோவில் தொலைந்தும் சிற்பங்கள் நிலைத்தன – கோவில் பகுதிகள் பாழாகிவிட்டாலும், கலைச்சிறப்பான தூண்கள் மற்றும் சிலைகள் இன்னும் மிளிர்கின்றன ✨.
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Valiyaparamba beach</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🏝️ கேரளா மாநிலத்தின் காசர்கோடு மாவட்டத்தில் அமைந்துள்ள வலியாபரம்பா கடற்கரை, கேரளாவின் மிகப்பெரிய நீர்வழிகளில் ஒன்றான வலியாபரம்பா பின்நீர் பகுதிக்கு அருகில் அமைந்த அழகிய கடற்கரை. 🌊✨ இந்த இடம், மீன்பிடியும், படகுப் பயணத்துக்கும் முக்கியமானது. 🎣🚤 
+🏰 இந்த கடற்கரைக்கு அருகில், 17ஆம் நூற்றாண்டில் கேலாடி அரசரான சிவப்பா நாயக்கர் கட்டிய பேகல் கோட்டை இருக்கிறது. இது அந்த காலத்தில் பாதுகாப்புக்காக பயன்படுத்தப்பட்டது. 🏯🔱 
+⚓ இந்த பகுதி, பழங்காலத்தில் போர்ச்சுகீசரும், டச்சுகாரர்களும் வந்த முக்கிய இடமாக இருந்தது. அவர்கள் இங்கிருந்து மசாலா பொருட்களை ஏற்றுமதி செய்தனர். 🌍🛶 
+📍 கடல் அழகும், வரலாற்று முக்கியத்துவமும், இனிய தென்றலும் சேரும் வலியாபரம்பா கடற்கரையை கண்டுகளிக்க மறந்துவிடாதீர்கள்! 😊✨" 
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை அழைக்கவும் – 6380013636 🚗🏕️ 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>Parassinikadavu temple</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🙏 கேரளா மாநிலத்தின் கண்ணூர் மாவட்டத்தில் அமைந்துள்ள பரசினிகடவு முரப்பன் கோவில், 🛕 ஒரு தனிப்பட்ட வழிபாட்டு இடம்! 🙏✨ 
+🔹 மற்ற இந்து கோவில்களை விட, இங்கு வழக்கமான வேத மரபுகள் பின்பற்றப்படாது. 🍷🐟 கள்ளும் (பனை மதுபானம்), வறுத்த மீனும் படைப்பாக அளிக்கப்படுவது, முரப்பன் தேவனின் பழங்குடி மரபுகளோடு உள்ள தொடர்பைக் காட்டுகிறது. 
+📖 முரப்பன் தேவன் ஒரு தெய்வீக உருவம் என நம்பப்படுகிறது. குழந்தையின்மை பிராமண தம்பதியினால் பிறந்தவர். 🎯🌿 அவர் பாரம்பரிய நடைமுறைகளை மாற்றி, வேட்டவர்களும் சாதாரண மக்களும் வாழும் வாழ்க்கையை தழுவினார். 
+🔹 முரப்பன் தேவர், கேரளாவின் பழங்குடி மற்றும் விவசாய சமூகத்துடன் இணைந்திருக்கிறார். அவர், திராவிட மற்றும் ஆரிய வழிபாட்டு மரபுகளை இணைக்கும் தெய்வமாக கருதப்படுகிறார். 
+🤝💖 இங்கு அனைத்து மதத்தினரும், ஜாதி வேறுபாடின்றி வரலாம். இதுபோன்ற ஏற்கும் மனப்பான்மை கொண்ட கோவில்கள் மிக அரிது. 
+📍 அனைவரையும் அன்புடன் வரவேற்கும் பரசினிகடவு கோவிலுக்கு ஒரு முறை சென்று பாருங்கள்! 😊✨ 
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை அழைக்கவும் – 6380013636 🚗🏕️ 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>Parassinikadavu snake park</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🐍 கேரளா மாநிலம், கண்ணூர் மாவட்டத்தில் அமைந்துள்ள பரசினிகடவு பாம்பு பூங்கா, 1980களில் நிறுவப்பட்டது. இதன் முக்கிய நோக்கம், பாம்புகளின் உண்மையான ماهத்துவத்தை மக்களுக்கு விளக்கி, அவற்றின் பாதுகாப்பை ஊக்குவிப்பதுதான். 🌿✨ 
+🔎 இங்கு 150-க்கும் மேற்பட்ட வகையான பாம்புகள் காணப்படுகின்றன, அதில் 🐍 கொடுங்கண பாம்பு (King Cobra), இந்தியக் கண்னாடி பாம்பு (Indian Cobra), ரஸ்ஸல் வைபர் (Russell’s Viper), மற்றும் கிரைட் (Krait) போன்ற விஷப்பாம்புகளும் உள்ளன. 
+🦎 இங்கு பாம்புகளோடு 🐊 முதலைகள், ஒளிப்பாம்புகள், ஆமைகள் மற்றும் சில இருவாழ்வினங்களும் பாதுகாப்பாக வளர்க்கப்படுகின்றன. இயற்கையின் இந்த அரிய உயிரினங்களை அருகில் இருந்து பார்க்க, இந்த பூங்காவிற்கு ஒரு முறை சென்று பாருங்கள்! 😊🌿 
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை அழைக்கவும் – 6380013636 🚗🏕️ 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>St. Angelo Fort Kannur</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🏰 கேரளாவின் கண்ணூர் மாவட்டத்தில் அமைந்துள்ள St. ஆஞ்சலோ கோட்டை, அதன் மூன்று மூலைகளும் உறுதியான laterite சுவர்களும் காரணமாக பிரசித்தி பெற்றது. 
+🛡️ கோட்டத்தை சுற்றி ஒரு அகழ் உள்ளது. இது பகைவரை தடுக்க பாதுகாப்பாக அமைந்தது. 
+⚔️ 1663-ல், டச்சுக்காரர்கள் கோட்டத்தை கைப்பற்றினர். பின்னர், அவர்கள் இதை பிரிட்டிஷ்காரர்களுக்கு விற்றனர். 🇬🇧 இந்திய சுதந்திரம் வரை, இது ஒரு ராணுவத் தளமாக இருந்தது. 
+⚔️ 1741-ல், கொலச்சல் போரில், திருவிதாங்கூர் ராணுவம் டச்சுக்காரர்களை தோற்கடித்தது. இந்த கோட்டை அந்த போரில் முக்கிய இடமாக இருந்தது. 
+🕳️ கோட்டத்திலிருந்து தலச்சேரி கோட்டம் உள்ளிட்ட இடங்களுக்கு ரகசிய சுரங்கங்கள் இருந்துள்ளன. 
+🏛️ இந்த கோட்டத்தின் வரலாற்று சிறப்பை உணர, யுனெஸ்கோ பட்டியலில் சேர்க்க முயற்சிகள் மேற்கொள்ளப்பட்டுள்ளன. 
+⏳ கடந்த காலத்தின் அடையாளங்களை காண, இந்த கோட்டத்துக்கு ஒரு முறை சென்று பாருங்கள்! 😊 
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை அழைக்கவும் – 6380013636 🚗🏕️ 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>Ezhimala hill</t>
+  </si>
+  <si>
+    <t>Sree Padmanabhaswamy Temple</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🏰 ரகசிய கனடிகளில் நிகரற்ற செல்வம்! 💰✨. கேரளாவின் திருவனந்தபுரத்தில் அமைந்துள்ள ஸ்ரீ பத்மநாபஸ்வாமி கோவில் 
+₹1 லட்சம் கோடிக்கு மேல் மதிப்புள்ள புதையல்! 🏆 கோவிலின் அடிநிலை கனடிகளில் தங்கம் 🪙, ரத்தினங்கள் 💎 மற்றும் பழமையான பொருட்கள் 🏺 உள்ளன. 
+🔸 அரிய அனந்தசயன விஷ்ணு! 🛕🙏 விஷ்ணு ஆதி சேஷன் 🐍 மீது அனந்தசயன நிலையில், 12,000 சாலகிராமம் கற்களால் உருவாக்கப்பட்டுள்ளார். 
+🔸 மர்மமயமான B கனடி! 🔐❌ கோவிலில் ஆறு கனடிகள் (A–F) ⛏️ உள்ளன, ஆனால் B கனடி இன்னும் திறக்கப்படவில்லை, இதற்கு தெய்வீக பாதுகாப்பு 🕉️ உள்ளது என நம்பப்படுகிறது. 
+🔸 திருவாங்கூர் அரச குடும்பத்தின் பிரமாண்ட கட்டிடம்! 🏛️🎨 உயர்ந்த கோபுரங்கள் 🏯, சிற்பங்கள் 🪨, ஓவியங்கள் 🎭 கொண்ட இந்த கோவில், 100 அடி உயர கோபுர வாயிலுடன் 🚪 பிரம்மாண்டமாக காட்சியளிக்கிறது! ✨ 
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை அழைக்கவும் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Guruvayur Temple</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🛕 🔱 நான்கு கரங்களில் விஷ்ணு ரூப கிருஷ்ணர்! 🙏✨. கேரளாவின் திருச்சூர் மாவட்டத்தில் அமைந்துள்ள குருவாயூர் கோவில் 
+🔸 சங்கு, சக்ரம், கேதகம், தாமரை! 🌸💫 
+கோவிலின் பிரதான தெய்வமான கிருஷ்ணர் 🏹, நான்கு கைகளில் சங்கு (🔱), சக்ரம் (⚔️), கேதகம் (🔨), மற்றும் தாமரை (🌺) ஏந்தி, வைகுண்ட விஷ்ணுவின் (🛕👑) திவ்ய ரூபத்தில் காட்சியளிக்கிறார். 
+🔸 📜 2000 ஆண்டுகளுக்கும் மேலான வரலாறு! 🏺⏳ 
+இந்த கோவில் தமிழ் சங்க கால இலக்கியங்களில் 📖 (கிமு 1ம் நூற்றாண்டு) 🏺 குறிப்பிடப்பட்டுள்ளதால், இது 2,000 ஆண்டுகளுக்கும் மேல் 📆⏳ பழமையானது என்பதற்கு உறுதி அளிக்கிறது. 
+🔸 🐘🌿 உலகின் மிகப்பெரிய யானை முகாம்! 🏰✨ 
+குருவாயூரில் உள்ள புன்னத்தூர் கோட்டா 🏯, 50+ யானைகள் 🐘🐘🐘 தங்க வைக்கப்பட்டுள்ள ஒரு கோவில் நிர்வகிக்கும் 🌿🛕 உலகின் மிகப்பெரிய யானை சரணாலயம் ஆகும். 
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை அழைக்கவும் – 6380013636</t>
+  </si>
+  <si>
+    <t>Silent Valley National Park</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🌿🏞 இந்தியாவின் கடைசி மழைக்காடுகளில் ஒன்று - சைலண்ட் வாலி! 🌳✨. கேரளாவின் பாலக்காடு மாவட்டத்தில் அமைந்துள்ள சைலண்ட் வாலி 
+🔸 மலையோர மழைக்காடு - எந்த மனித வசிப்பதும் இல்லை! 🚫🏡 
+சைலண்ட் வாலி இந்தியாவின் கடைசி பசுமை மழைக்காடுகளில் ஒன்று, மனித குடியேற்றம் இல்லாததால் இயற்கை தனது ஒரிஜினல் அமைதியை பேணியுள்ளது. 
+🔸 அழியந்த Lions-Tailed Macaque 🐵✨ உயிரினங்கள்! 
+இந்த பூங்கா, பழமையான மேற்குத் தொடர்ச்சி மலையில் மட்டுமே காணப்படும் 🐵 சிங்கவால் குரங்குகளின் முக்கிய வாழ்விடம் ஆகும். 
+🔸 யுனெஸ்கோ ஒப்புதல் பெற்ற நீலகிரி உயிரியல் பாதுகாப்பகம்! 🌎🦜 
+சைலண்ட் வாலி, நீலகிரி உயிரியல் பாதுகாப்பகத்தின் (Nilgiri Biosphere Reserve) 🎖️ ஓர் அங்கம், ஆயிரத்திற்கும் மேற்பட்ட மலர் வகைகள் 🌺, 200+ பட்டாம்பூச்சிகள் 🦋, மற்றும் அரிய மரங்கள் 🌲 கொண்டது. 
+🔸 பூச்சிகளில்லாத மழைக்காடு – ஏன் "Silent" வாலி? 🤫🌳 
+பிற மழைக்காடுகளுக்கு மாறாக, இங்கு சிகாடா (Cicadas) 🦗 போன்ற பூச்சிகள் இல்லை, அதனால் மிக அமைதியாக உள்ளது. இது "Silent Valley" என்ற பெயரை பெற்றதற்குக் காரணம்! 🔕 
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை அழைக்கவும் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Athirappilly Waterfalls</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🌊🏞 கேரளாவின் மிகப்பெரிய நீர்வீழ்ச்சி - அதிரப்பள்ளி! 💦✨. கேரளாவின் திருச்சூர் மாவட்டத்தில் அமைந்துள்ள அதிரப்பள்ளி நீர்வீழ்ச்சி 
+🔸 80 அடி உயரம், 330 அடி அகலம்! 🌊🏔️ 
+அதிரப்பள்ளி கேரளாவின் மிகப்பெரிய நீர்வீழ்ச்சி மற்றும் இந்தியாவின சக்திவாய்ந்த நீர்வீழ்ச்சிகளில் ஒன்றாகும். 
+🔸 மேற்கு தொடர்ச்சி மலையிலிருந்து உருவானது! ⛰️🌿 
+இந்த நீர்வீழ்ச்சி சாலக்குடி ஆற்றால் 💧 உருவாகியுள்ளது, இது அனமலை மலைகளில் ⛰️ பிறந்து, அடர்ந்த மழைக்காடுகள் 🌳 வழியாக பாய்ந்து கீழே விழுகிறது. 
+🔸 சினிமாவின் பிரபல இடம்! 🎥🎬 
+அதிரப்பள்ளி பாகுபலி ⚔️, தில் சே 🎶 (ஜியா ஜலே பாடல்), ராவணன் 🎭, புன்னகை மன்னன் 💃, குரு 🏯 போன்ற வெற்றிப் படங்களில் இடம் பெற்றுள்ளது, இதை திரைப்பட இயக்குநர்களின் பிடித்த இடமாக ஆக்கியுள்ளது! 🎞️✨ 
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை அழைக்கவும் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Alleppey Backwaters</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🚣‍♂️🏆 நேரு டிராபி படகு போட்டி - கேரளாவின் பிரபலமான படகு போட்டி! 🌊✨. கேரளாவின் அலப்புழை மாவட்டத்தில் அமைந்துள்ள அழகிய பின்னணிக்காடுகள் 
+🔸 1952ல் தொடங்கிய பிரபலமான பாம்பு படகு போட்டி! 🏁🚣‍♂️ 
+இந்த ஆண்டுதோறும் நடக்கும் பாம்பு படகு போட்டி ஜவஹர்லால் நேருவின் பெயரில் 1952ல் தொடங்கப்பட்டது 🏆. இது கேரளாவின் பண்பாட்டு மற்றும் விளையாட்டு மரபுகளை 🏅 பிரதிபலிக்கிறது. 
+🔸 900+ கிமீ நீர்வழிகள் கொண்ட அழகான அலப்புழை! 🌊🚤 
+அலப்புழையில் 900 கிமீ-க்கும் மேற்பட்ட ஆறுகள், கால்வாய்கள், ஏரிகள், மற்றும் வளைகுடாக்கள் இணைந்து மந்திரமயமான அழகிய நிலக்காட்சியை உருவாக்குகின்றன. 
+🔸 ஆயுர்வேதம், யோகா, மற்றும் மெடிடேஷன்! 🧘‍♂️🌿 
+பல ஹவுஸ்போட்டுகள் 🚤 மற்றும் ரிசார்ட்கள் 🏡 ஆயுர்வேத சிகிச்சைகள் 🌿, யோகா 🧘, மற்றும் தியானம் 🕉️ வழங்கி, ஆரோக்கியம் மற்றும் இளைப்பாறலுக்கான சிறந்த இடமாக அலப்புழையை மாற்றுகின்றன! ✨ 
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை அழைக்கவும் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Edakkal Caves</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+⛰️🖍 6000 வருட பழமையான எடக்கல் குகைகள்! 🏺✨ 
+கேரளாவின் வயநாடு மாவட்டத்தில் அமைந்துள்ள பண்டைய வரலாற்றுக் கோஷ்டிகள் 
+🔸 கற்கால ஓவியங்கள்! 🏺🎨 
+600 BCE – 1000 BCE காலத்தைச் சேர்ந்த கற்கால மனிதர் 🗿 உருவாக்கிய ஓவியங்கள் தென் இந்தியாவின் பழமையான குடியேற்றங்களில் ஒன்றாக எடக்கலை மாற்றுகின்றன. 
+🔸 தென் இந்தியாவில் நீயோலிதிக் &amp; மெசொலிதிக் கால ஓவியங்கள் உள்ள ஒரே இடம்! ⏳ 
+🔸 1,200 மீட்டர் உயரத்தில் அழகிய பனோரமிக் காட்சி! ⛰️🌄 
+குகைகள் காட்டுகள் 🌿, மலைகள் 🏔️, தேயிலை தோட்டங்கள் 🍃 போன்ற பரந்த காட்சிகளை வழங்குகின்றன. 
+🔸 யுனெஸ்கோ பாரம்பரிய பட்டியலில் சேர விரையும்! 🌍🎖️ 
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை அழைக்கவும் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Kalari Kshethra</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🥋⚔️ 3000 வருட பழமையான கலரிப்பயற்று - கேரளத்தின் வீரப்பாரம்பரியம்! 🔥✨ 
+கேரளாவின் முன்னார் மாவட்டத்தில் அமைந்துள்ள கலரி க்ஷேத்ரா - கலரிப்பயற்று கற்கவும் காணவும் சிறந்த இடம்! 
+🔸 மூன்றாயிரம் வருட பழமையான போர்க்கலை! 🏹⚔️ 
+கலரிப்பயற்று, உலகின் முதல் போர்க்கலையாக 🥋 கருதப்படுகிறது மற்றும் அனைத்து மார்ஷல் ஆர்ட்ஸ்களின் 📜 முதன்மை உருவமாக மதிக்கப்படுகிறது. 
+🔸 அதிரடியான கலைச்செயல்பாடுகள்! 🤸‍♂️⚡ 
+வாள்போர்கள் ⚔️, கைவிற்பொருள்கள் 🛡️, யோக்யமான சாகசங்கள் 🤺 ஆகியவை வீரர்களின் திறமையையும் உடல்நலத்தையும் வெளிப்படுத்துகின்றன. 
+🔸 பழங்கால வீரர் ஆயுதங்கள்! 🗡️🔱 
+போர்க்கலைக் காட்சிகளில் வாள்கள் ⚔️, கேடயங்கள் 🛡️, உருமி (நெகிழ்வாளி வாள்) 🌀, கத்திகள் 🗡️, ஈட்டி 🔱 போன்ற ஆயுதங்கள் பயன்படுத்தப்படுகின்றன, இதன் மூலம் கேரள வீரர்களின் பழங்கால போர்த் திறன்கள் பாதுகாக்கப்படுகின்றன! 💪🔥 
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை அழைக்கவும் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Elephant Junction</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🐘💖கேரளாவின் தேக்கடியில் மாவட்டத்தில் அமைந்துள்ள எலிபேண்ட் ஜங்ஷன் – மனதை கவரும் யானை அனுபவம்! 🌿✨ 
+🔸 யானைகளுடன் நேரடியாக தொடர்பு கொள்ளுங்கள்! 🤗🐘 
+யானைகளை தொட்டுப் பார்ப்பதுடன், அவற்றுக்கு உணவூட்டி, விளையாடும் அனுபவம் பெற்றிடலாம். 
+🔸 யானை குளியல் – மறக்க முடியாத தருணம்! 🚿🐘 
+நதியில் அல்லது குளத்தில் யானைகளை குளிப்பாட்டி, தோலுக்கு ஸ்க்ரப் செய்து, அவற்றின் தண்ணீர் பீச்சில் மகிழலாம்! 💦🌿 
+🔸 சுருக்கமான, பாதுகாப்பான யானை சவாரி! 🏇🐘 
+இங்கு யானைகள் அதிக சுமையின்றி, சிறப்பாக கண்காணிக்கப்படும் குறுகிய சவாரி அனுபவம் மட்டுமே வழங்கப்படுகிறது. 
+🔸 பெரியார் புலிகள் காப்பகத்திற்கு அருகில்! 🌳🐅 
+யானை அனுபவத்துடன் இணைந்து வனவிலங்கு சபாரி, பாம்பூ ராஃட்டிங் 🚣‍, படகு சவாரி போன்றவை அனுபவிக்கலாம். 
+🐘💖 இயற்கையோடு இணைந்த விலங்குகளை நேசிக்கும் பயண அனுபவம்! 🌿✨ 
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை அழைக்கவும் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Periyar Lake</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🌊🐅 120 ஆண்டு பழமையான பெரியார் ஏரி - கேரளத்தின் உயிரின பராதீனம்! 🌿✨ 
+கேரளாவின் இடுக்கி மாவட்டத்தில் அமைந்துள்ள பெரியார் ஏரி 
+🔸 1895ல் உருவான செயற்கை ஏரி! 🏗️💧 
+பெரியார் ஆற்றின் குறுக்கே முல்லைப்பெரியார் அணை கட்டப்பட்டபோது (1895) இந்த ஏரி உருவாக்கப்பட்டது. இதை பிரிட்டிஷ் பொறியாளர் ஜான் பென்னிகுக் 🏗️ உருவாக்கினார், தமிழகத்திற்கு நீர் திசைதிருப்புவதற்காக. 
+🔸 பெரியார் புலிகள் காப்பகத்தின் ஓர் அங்கம்! 🐅🌿 
+1934ல், பெரியார் உயிரியல் சரணாலயம் 🏞️ உருவாக்கப்பட்டபோது, இந்த ஏரி அதன் முக்கிய பகுதியாக இணைக்கப்பட்டது. 1978ல், இது பெரியார் புலிகள் காப்பகமாக 🐅 மாற்றப்பட்டது, இது இந்தியாவின் சிறந்த இயற்கை பாதுகாப்பு பகுதிகளில் ஒன்றாகும்! 🌍✨ 
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை அழைக்கவும் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Chottanikkara Temple</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🛕✨ 1500 ஆண்டு பழமையான கோவில் - மனஅழுத்தம் நீக்கும் தெய்வீக சக்தி! 🙏💫 
+கேரளாவின் எர்ணாகுளம் மாவட்டத்தில் அமைந்துள்ள சொட்டணிக்கரை அம்மன் கோவில் மனநோய்கள் மற்றும் தீய சக்திகளை போக்கும் புனித தலம் ஆகும். 
+🔸 மனநோய்களுக்கு தீர்வு! 🧠💖 
+பற்பல பக்தர்கள் மனஅழுத்தம் மற்றும் உளவியல் பிரச்சனைகளுக்கு 🧘‍♂️ அமைதி தேடி, இங்கு தெய்வீக ஆசீர்வாதத்தை பெற வருகின்றனர். 
+🔸 மூன்று ரூபங்களில் ஒரே தெய்வம்! 🌺🕉️ 
+🌞 காலை - சரஸ்வதி (அறிவின் தெய்வம், வெண்மை உடை) 
+🌅 மதியம் - லட்சுமி (செல்வத்தின் தெய்வம், சிவப்பு உடை) 
+🌙 மாலை - துர்கை (சக்தியின் தெய்வம், நீலம் உடை) 
+🔸 1500 ஆண்டுகளுக்கும் மேலான வரலாற்று கோவில்! 🏛️⏳ 
+பழமையான கட்டிடக்கலை 🎨 மற்றும் ஆன்மீக முக்கியத்துவத்துடன், இந்த கோவில் பண்டைய காலத்திலிருந்தே பக்தர்களை ஈர்த்து வருகிறது! 🙏✨ 
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை அழைக்கவும் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Vizhinjam Rock Cut Cave Temple</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🛕✨ 8ம் நூற்றாண்டு பழமையான பாறை வெட்டுக்கோவில்! 🏛️🔱 
+கேரளாவின் திருவனந்தபுரம் மாவட்டத்தில் அமைந்துள்ள தொன்மையான பாறை வெட்டுக் கோவில்களில் ஒன்றாகும்! 
+🔸 ஒரே ஒரு பாறையிலிருந்து முழுமையாக வடிக்கப்பட்ட கோவில்! 🪨🎨 
+இது பண்டைய திராவிடக்கலைக் கட்டிடக்கோவையை 🏛️ வெளிப்படுத்துகிறது. 
+🔸 அரிமுகம் செய்யாத ஒளிமிகு சிற்பங்கள்! 🛕🌿 
+உள் குகையின் சுவர்களில் முடிக்கப்படாத பிரமாதமான சிவன் 🔱 மற்றும் பார்வதி 🌺 சிற்பங்கள் காணலாம். 
+🔸 பல்லவ கால பாறை வெட்டுக் கோவில்களை ஒத்த வடிவம்! 🏯 
+இந்தக் கோவிலின் கட்டிடக்கலை தமிழ்நாட்டின் பல்லவர் கால கோவில்களை ஒத்ததாக உள்ளதால், அந்நாளைய தமிழ் அரசர்களின் தாக்கம் இருக்கக்கூடும். 🏹✨ 
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை அழைக்கவும் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Bekal Fort</t>
+  </si>
+  <si>
+    <t>🏰🌊 பேகல் கோட்டை – கேரளாவின் மிகப்பெரிய கடற்கோட்டை! ✨ 
+கேரளாவின் காசர்கோடு மாவட்டத்தில் அமைந்துள்ள 17ம் நூற்றாண்டு கோட்டை, கேலாடி நாயக்கர்கள் கட்டியதாகும். பின்னர் தீபு சுல்தான் ⚔️ மற்றும் ஆங்கிலேயர்கள் 👑 கைப்பற்றினர். 40-acre பரப்பளவில் பரந்த, சிறப்பாக பாதுகாக்கப்பட்ட கோட்டங்களில் ஒன்றாகும். 
+🔸 ரகசிய நிலத்தடி வழிகள்! 🔦🚪 
+போர்க்காலங்களில் பயனாக்கப்பட்ட தப்பிக்கான ரகசிய சுரங்க வழிகள் இங்குள்ள முக்கிய அம்சம்! 
+🔸 கடற்காற்றுக்கு எதிரான உறுதியான கட்டுமானம்! 🏰🌊 
+சிவப்பு லேட்டரைட் கற்கள் 🪨 பயன்படுத்தப்பட்டதால், கோட்டை கடற்காற்றுக்கு மிகுந்த தடுப்பாக உள்ளது. 
+🔸 ஆஞ்சநேயர் கோவில் – ஆன்மீக முக்கியத்துவம்! 🙏🛕 
+நுழைவாயிலில் உள்ள ஆஞ்சநேயர் கோவில், கோட்டை பாதுகாப்போடு ஆன்மீகத்தையும் கொண்டதாக இருந்ததை காட்டுகிறது. 
+🔸 சினிமாவில் புகழ்பெற்ற இடம்! 🎥🎶 
+இந்த கோட்டை பல இந்திய திரைப்படங்களில் இடம் பெற்றுள்ளது, குறிப்பாக Bombay (1995) திரைப்படத்தின் ""Uyire / Tu Hi Re"" பாடல் இங்குதான் படமாக்கப்பட்டது! 🎶✨ 
+வரலாற்று சிறப்புமிக்க, கடற்கரையில் பளபளப்பாக நிற்கும் இந்த கோட்டை, கண்டிப்பாக வரவேண்டிய இடம்! 🌅🏰</t>
+  </si>
+  <si>
+    <t>Vadakkunnathan Temple</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🛕🔥 1000 ஆண்டு பழமையான சிவன் கோவில்! ✨🙏 
+கேரளாவின் திருச்சூர் மாவட்டத்தில் அமைந்துள்ள இந்த கோவில், பரசுராமனால் உருவாக்கப்பட்டதாக நம்பப்படுகிறது. 
+🔸 சிற்பமில்லா லிங்கம்! 🔱🕯️ 
+இங்கு சிவன் சிலை இல்லாமல், நெய் பூசப்பட்ட லிங்கம் உள்ளது, அது ஒருபோதும் உருகாது! 
+🔸 கேரளாவின் மிகப்பெரிய பூரம் திருவிழா! 🎉🐘 
+ஆனை பேரணைகள், மங்கல வாத்தியங்கள் 🥁🎶, வானவேடிக்கைகள் 🎆 என பிரமாண்டமான திருவிழா! 
+🔸 நான்கு திசைகளில் நான்கு வாயில்கள்! 🏛️🧭 
+கோவிலின் நான்கு வாசல்கள், நான்கு வேதங்களை குறிக்கின்றன 📜. 
+🔸 அழகிய பாரம்பரிய கட்டிடக்கலை! 🎨🏯 
+மரச்சிற்பங்கள், கீழே இறங்கிய கூரைகள், மற்றும் பாரம்பரிய கேரளக் கோவில் வடிவம்! 
+ஆன்மீகம், வரலாறு, கலையின் சங்கமம்! 🕉️🔥 
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை அழைக்கவும் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Kovalam Beach</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🌊🏖️ கேரளாவின் திருவனந்தபுரம் மாவட்டத்தில் அமைந்துள்ள அழகிய கோவளம் கடற்கரை! – மூன்று அற்புதமான கடற்கரைகளின் சங்கமம்! ✨ 
+கேரளாவின் பிரபலமான அரைகுற்று (crescent-shaped) கடற்கரை, மூன்று அழகிய பகுதிகளாக பிரிக்கப்பட்டுள்ளது: 
+🔸 லைட்ஹவுஸ் கடற்கரை 🏝️ (மிகவும் பிரபலமானது) 
+🔸 ஹவா கடற்கரை 🌊 (குறைவான கூட்டம்) 
+🔸 சமுத்திரா கடற்கரை 🌿 (அமைதியான, இயற்கை மடங்கிய இடம்) 
+🔸 மென்மையான பொன் மணலும், அழகான நீரிலும் ஓய்வெடுக்க சிறந்த இடம்! 🏊‍♂️☀️ 
+இதன் ஆழமில்லா நீர் செல்வந்தர்கள் மற்றும் சுற்றுலாப் பயணிகளுக்கு மிகப்பிடித்த இடமாகும்! 
+🔸 1920களில் பிரபலமானது! 👑🏖️ 
+திராவிட மகாராஜாவின் தனிப்பட்ட கடற்கரை விடுதியாக கோவளம் பயன்பட்டதால், இதன் புகழ் பரவியது. 
+🏝️ சூரிய உதயம் முதல் சாயங்காலம் வரை கோவளம் உங்கள் மனதை கொள்ளை கொள்ளும்! ✨🌊 
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை அழைக்கவும் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Paramekkavu Bhagavathy Temple</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🛕🔥 1000 ஆண்டு பழமையான பரமேக்காவு பகவதி அம்மன் கோவில்! 🙏✨ 
+கேரளாவின் திருச்சூர் மாவட்டத்தில் அமைந்துள்ள, சக்தி தேவியான பகவதிக்கு அர்ப்பணிக்கப்பட்ட பண்டைய கோவில். 
+🔸 திருச்சூர் பூரத்துக்கு முக்கிய பங்காளர்! 🎉🐘 
+பரமேக்காவு தேவஸ்வம், திருவம்பாடி தேவஸ்வத்துடன் இணைந்து திருச்சூர் பூரத்தில் முக்கிய பங்கு வகிக்கிறது. 
+🔸 பிரமாண்டமான ஆனை பேரணி! 🏵️🐘 
+திருவிழாவில், அலங்கரிக்கப்பட்ட யானைகள், அம்மன் சிலையை அணிவகுப்பாக அழைத்துச் செல்கின்றன. 
+🔸 மகத்தான குடமட்டம் விழா! ☂️🎭 
+பளபளப்பான, வண்ணமயமான குடை மாற்றும் நிகழ்ச்சி, திருவிழாவின் முக்கிய சிறப்பு! 
+🎊🎶 ஆன்மீகமும், கலாச்சார மகிமையும் கலந்த திருவிழாவை காண இது சிறந்த இடம்! 🙏🐘✨ 
+📞 DM செய்யுங்கள் அல்லது இந்த எண்ணை அழைக்கவும் – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅
+📍 தமிழ்நாடு மாநிலத்தின், ராமநாதபுரம் மாவட்டத்தில் அமைந்துள்ள இராமநாதசுவாமி கோயில் 🛕 இந்தியாவின் மிக நீளமான கோயில் நடைபாதையின் ஆதரவிடமாக திகழ்கிறது, இது நம்பமுடியாத 1,220 மீட்டர் (4,000 அடி) 📏 நீளம் கொண்டது.
+🚶‍♂️ இந்த நடைபாதையில் கோயிலைச் சுற்றியுள்ள நான்கு பிரம்மாண்டமான பாதைகள் உள்ளன, மேலும் 1,212 நுணுக்கமாக செதுக்கப்பட்ட கல் தூண்கள் 🏗️ உள்ளன, ஒவ்வொன்றும் 22 அடி உயரத்திற்கு மேல் நிற்கின்றன.
+🔹 இந்த நடைபாதையின் மிகவும் பிரமிப்பூட்டும் அம்சங்களில் ஒன்று அதன் சரியான சமச்சீர் மற்றும் முன்னோக்கு 👀 – நீங்கள் ஒரு முனையில் நிற்கும்போது, தூண்களின் வரிசைகள் ஒரு முடிவற்ற சுரங்கப்பாதை மாயையை 🌀 உருவாக்குகின்றன, இது உலகின் மிகவும் பார்வைக்கு அதிர்ச்சியூட்டும் கோயில் கட்டமைப்பகளில் ஒன்றாகும்.
+📞 பயண ஏற்பாடுகளுக்கு DM செய்யுங்கள் அல்லது எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️
+#ZiCations</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+🚂 தமிழ்நாட்டில் உள்ள நீலகிரி மலை ரயில்வே ஆசியாவின் மிக செங்குத்தான ரயில் பாதையைக் கொண்டுள்ளது, இது கல்லார் மற்றும் குன்னூர் இடையே 20 கிலோமீட்டர் தூரத்தில் 12.28:1 ⛰️ சாய்வைக் கொண்டுள்ளது. 
+⬆️ இதன் பொருள் ஒவ்வொரு 12.28 அடி பயணத்திற்கும், ரயில் 1 அடி 🛤️ ஏறும். 
+⚙️ இந்த செங்குத்தான சாய்வில் செல்ல, ரயில்வே ஒரு ரேக்-அண்ட்-பினியன் அமைப்பைப் பயன்படுத்துகிறது, இது இந்தியாவின் ஒரே செயல்பாட்டு ரேக் ரயில்வே ஆகும். 
+🏛️ யுனெஸ்கோ உலக பாரம்பரிய தளமாக அறிவிக்கப்பட்ட இந்த ரயில்வே, சவாலான நிலப்பரப்பைக் கையாளுவதற்காக சிறப்பாக வடிவமைக்கப்பட்ட என்ஜின்கள் &amp; பெட்டிகள் கொண்டுள்ளது. 
+🐢 கூடுதலாக, நீலகிரி மலை ரயில்வே இந்தியாவின் மெதுவான ரயிலாகும், இது மணிக்கு வெறும் 9 கிமீ வேகத்தில் பயணிக்கிறது, இது நீலகிரி மலைகளின் வழியாக ஒரு அழகிய &amp; நிதானமான பயணத்தை 💚 வழங்குகிறது. 📞 பயண ஏற்பாடுகளுக்கு DM செய்யுங்கள் அல்லது எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️ 
+📞 பயண ஏற்பாடுகளுக்கு DM செய்யுங்கள் அல்லது எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️ 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅
+📍 வட்டக்கானல், தமிழ்நாடு மாநிலத்தில், கொடைக்கானலுக்கு அருகில் அமைந்துள்ள ஒரு ஒதுங்கிய மலை கிராமம், தமிழ்நாட்டின் மிகவும் தனித்துவமான மற்றும் உற்சாகமான இடங்களுள் ஒன்றாகும். 
+🇮🇱 ஏராளமான இஸ்ரேலிய பயணிகள் வருகை தந்து பல மாதங்கள் தங்குவதால், இது "லிட்டில் இஸ்ரேல்" என்ற புனைப்பெயரைப் பெற்றது. 
+🏞️ கொடைக்கானலின் பரபரப்பான தெருக்களைப் போலல்லாமல், வட்டக்கானல் அமைதியாகவும், மூடுபனியுடனும் 🌫️ அதிகளவு சுற்றுலா பாதிக்கப்படாமலும் உள்ளது, இது மேற்குத் தொடர்ச்சி மலைகள் மற்றும் தமிழ்நாட்டின் தொலைதூர சமவெளிகளின் மூச்சடைக்கக்கூடிய காட்சிகளை வழங்குகிறது. 
+🎨 அதன் போகீமியன் உணர்வுக்கு பெயர் பெற்ற இந்த கிராமத்தில் சிறிய ஹோம்ஸ்டேக்கள், இஸ்ரேலிய உணவு வகைகளை வழங்கும் ஆர்கானிக் கஃபேக்கள் ☕ மற்றும் டால்பின்ஸ் நோஸ் 🏔️ மற்றும் எக்கோ ராக் போன்ற அதிர்ச்சியூட்டும் கண்ணோட்டங்களுக்கு வழிவகுக்கும் மறைக்கப்பட்ட மலையேற்ற பாதைகள் உள்ளன. 
+📞 பயண ஏற்பாடுகளுக்கு DM செய்யுங்கள் அல்லது எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️
+#ZiCations</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+📍 பிச்சாவரம், தமிழ்நாடு மாநிலத்தில், சிதம்பரத்திற்கு அருகில் அமைந்துள்ளது, இது உலகின் இரண்டாவது பெரிய சதுப்புநிலக் காடுகளின் 🌿 தாயகமாக இருக்கிறது. 1,100 ஹெக்டேர் பரப்பளவில், இது ஒன்றோடொன்று இணைக்கப்பட்ட நீர்வழிகள், தீவுகள் 🏝️ மற்றும் அடர்ந்த சதுப்புநில தாவரங்களை 🌳 உள்ளடக்கியது. 
+🔮 பிச்சாவரத்தை உண்மையிலேயே தனித்துவமாக்குவது அதன் மாய மறைக்கப்பட்ட நீர் சுரங்கங்கள் 🛶 ஆகும், இது இயற்கையாகவே சதுப்புநில வேர்களை தொங்கவிடுவதன் மூலம் உருவாகிறது. 
+🌑 இந்த குறுகிய பாதைகள் மிகவும் அடர்த்தியானவை, சூரிய ஒளி ☀️ தண்ணீரை அடைவதில்லை, இது படகு மூலம் செல்வோருக்கு ஒரு வினோதமான மற்றும் விசித்திரமான அனுபவத்தை உருவாக்குகிறது. 
+🌊 இது சுனாமிகளுக்கு எதிரான ஒரு முக்கியமான இயற்கை தடையாகவும் உள்ளது. 
+📞 பயண ஏற்பாடுகளுக்கு DM செய்யுங்கள் அல்லது எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️ 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅 
+📍 வைனு பப்பு ஆய்வகம் (VBO), தமிழ்நாடு மாநிலத்தில், வேலூர் மாவட்டத்தில் காவலூருக்கு அருகில் அமைந்துள்ளது. இது இந்தியாவின் இரண்டாவது பெரிய ஒளியியல் தொலைநோக்கியாகும், 2.34-மீட்டர் முதன்மை கண்ணாடியுடன், ஆசியாவின் மிக முக்கியமான வானியல் ஆராய்ச்சி மையங்களில் 🪐 ஒன்றாகும். 
+🔭 இந்தியாவின் மிகப்பெரிய ஒளியியல் தொலைநோக்கி உத்தரகண்ட் மாநிலத்தின் நைனிடாலில் உள்ள 3.6 மீட்டர் தேவஸ்தல் ஒளியியல் தொலைநோக்கி ஆகும். இருப்பினும், வைனு பப்பு ஆய்வகம் 2016 ஆம் ஆண்டு தேவஸ்தல் தொலைநோக்கி செயல்படத் தொடங்கும் வரை இந்தியாவின் மிகப்பெரிய தொலைநோக்கியாக இருந்தது. 
+✨ காவலூருக்கு அருகில் அமைந்துள்ள இவ்வாய்வகம், சனியைச் சுற்றி புதிய வளையத்தைக் கண்டறிதல் 🪐 மற்றும் நட்சத்திரங்கள் மற்றும் விண்மீன் திரள்கள் 🌌 குறித்த தனித்துவமான ஆய்வுகளில் முக்கிய பங்கு வகித்துள்ளது. 
+📞 பயண ஏற்பாடுகளுக்கு DM செய்யுங்கள் அல்லது எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️ 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>இனிய காலை வணக்கம் 🌅
+📍 தமிழ்நாடு மாநிலத்தின் சேலம் மாவட்டத்தில் அமைந்துள்ள சங்ககிரி கோட்டை, தமிழ்நாட்டின் மிகவும் வலுவூட்டப்பட்ட மலைக் கோட்டைகளில் 🏰 ஒன்றாகும், இது 12 செறிவூட்டப்பட்ட தற்காப்பு சுவர்களைக் கொண்டுள்ளது – இது தென்னிந்தியாவின் வலிமையான கோட்டைகளில் ஒன்றாகும்.
+🔎 கோட்டையின் ரகசிய சுரங்கங்கள் மற்றும் நிலத்தடி அறைகளுக்குள் ஏராளமான புதையல்களை மறைத்து வைத்திருப்பதாக நம்பப்படும் திப்பு சுல்தானுடனான தொடர்பு தான் சங்ககிரியை தனித்துவமாக்குகிறது. இது திப்பு சுல்தானின் இராணுவத் தளமாக இருந்தது. பலர் அதைத் தேடினாலும், புதையல் ஒரு மர்மமாகவே உள்ளது.
+⚔️ இந்த கோட்டை இந்தியாவின் சுதந்திரப் போராட்டத்திலும் முக்கிய பங்கு வகித்தது, ஆங்கிலேயர்களுக்கு எதிராக போராடிய தீரன் சின்னமலை என்ற தமிழ் போர்வீரருக்கு ஒரு தளமாக செயல்பட்டது. தீரன் சின்னமலை ஆங்கிலேயர்களால் சங்ககிரி கோட்டையில் தூக்கிலிடப்பட்டார்.
+🇮🇳 ஆங்கிலேயர்கள் அதைக் கைப்பற்றுவதற்கு முன்பு இது தீரன் சின்னமலை மற்றும் திப்பு சுல்தானின் கட்டுப்பாட்டில் இருந்தது.
+📞 பயண ஏற்பாடுகளுக்கு DM செய்யுங்கள் அல்லது எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636 🚗🏕️
+#ZiCations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -67,12 +1091,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -81,9 +1120,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -365,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection sqref="A1:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,28 +1418,620 @@
     <col min="2" max="2" width="66.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="315" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
